--- a/ASHRAE901_ApartmentHighRise_STD2019_SeattleTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_SeattleTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1868.72</t>
+          <t>2088.26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1097.98</t>
+          <t>1918.64</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>457.54</t>
+          <t>663.15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>841.05</t>
+          <t>1470.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>652.44</t>
+          <t>1140.39</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>643.34</t>
+          <t>1128.77</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1198.23</t>
+          <t>1321.83</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1195.69</t>
+          <t>1333.44</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2640.45</t>
+          <t>2779.54</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1860.62</t>
+          <t>2553.34</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2036.83</t>
+          <t>2243.30</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1414.62</t>
+          <t>1925.47</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1010.12</t>
+          <t>1382.70</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>996.59</t>
+          <t>1364.05</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1465.86</t>
+          <t>1627.57</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1468.77</t>
+          <t>1649.97</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2644.76</t>
+          <t>2785.17</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1882.96</t>
+          <t>2568.70</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2031.44</t>
+          <t>2207.72</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1434.51</t>
+          <t>1927.46</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1047.76</t>
+          <t>1398.65</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1034.07</t>
+          <t>1381.75</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1487.00</t>
+          <t>1635.35</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1479.50</t>
+          <t>1647.24</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2647.93</t>
+          <t>2765.97</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1886.13</t>
+          <t>2577.13</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2028.56</t>
+          <t>2194.97</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1439.24</t>
+          <t>1922.90</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1052.67</t>
+          <t>1401.23</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1038.92</t>
+          <t>1387.84</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1491.34</t>
+          <t>1631.42</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1483.94</t>
+          <t>1645.05</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2643.29</t>
+          <t>2742.85</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>1882.61</t>
+          <t>2555.73</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2032.46</t>
+          <t>2189.38</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1436.18</t>
+          <t>1927.49</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1053.27</t>
+          <t>1402.03</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1041.88</t>
+          <t>1383.80</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1497.10</t>
+          <t>1611.29</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1485.93</t>
+          <t>1639.66</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2643.38</t>
+          <t>2745.06</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>1879.05</t>
+          <t>2552.46</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2029.69</t>
+          <t>2178.59</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1431.78</t>
+          <t>1920.92</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1052.24</t>
+          <t>1398.05</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1041.05</t>
+          <t>1382.74</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1496.05</t>
+          <t>1606.95</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1486.91</t>
+          <t>1616.77</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2645.25</t>
+          <t>2747.28</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>1875.32</t>
+          <t>2550.92</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2035.17</t>
+          <t>2144.88</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1428.60</t>
+          <t>1918.28</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1025.02</t>
+          <t>1395.05</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1013.98</t>
+          <t>1381.04</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1496.15</t>
+          <t>1611.19</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1485.08</t>
+          <t>1619.65</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2649.86</t>
+          <t>2750.35</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>1877.33</t>
+          <t>2555.14</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2043.33</t>
+          <t>2147.55</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>1430.24</t>
+          <t>1920.84</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1029.24</t>
+          <t>1401.61</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1018.30</t>
+          <t>1383.42</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1483.14</t>
+          <t>1617.18</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1488.46</t>
+          <t>1625.64</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>2733.03</t>
+          <t>2803.83</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>1953.31</t>
+          <t>2635.65</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2077.01</t>
+          <t>2177.07</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1453.56</t>
+          <t>1947.78</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1110.15</t>
+          <t>1477.93</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1098.96</t>
+          <t>1459.86</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1516.89</t>
+          <t>1655.77</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1505.34</t>
+          <t>1666.04</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3506.28</t>
+          <t>3650.69</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>2129.68</t>
+          <t>3218.71</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>2758.35</t>
+          <t>2823.70</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>1285.51</t>
+          <t>2394.00</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1334.85</t>
+          <t>1877.77</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1325.98</t>
+          <t>1874.95</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2156.60</t>
+          <t>2279.71</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2169.14</t>
+          <t>2291.26</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1772.90</t>
+          <t>2193.60</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>136.47</t>
+          <t>2040.80</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>334.29</t>
+          <t>762.67</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>135.49</t>
+          <t>1556.17</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>146.90</t>
+          <t>1171.75</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>146.61</t>
+          <t>1148.58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1035.65</t>
+          <t>1312.04</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1027.69</t>
+          <t>1313.65</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2055.97</t>
+          <t>2820.80</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2253.02</t>
+          <t>2712.92</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1597.14</t>
+          <t>2250.54</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>278.77</t>
+          <t>2058.36</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1193.00</t>
+          <t>1509.79</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1035.49</t>
+          <t>1489.17</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1269.82</t>
+          <t>1618.17</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1263.98</t>
+          <t>1628.29</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2096.34</t>
+          <t>2817.13</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2277.18</t>
+          <t>2679.95</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1600.32</t>
+          <t>2247.22</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1290.83</t>
+          <t>2031.60</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1209.33</t>
+          <t>1501.88</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1189.49</t>
+          <t>1476.42</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1286.30</t>
+          <t>1615.99</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1274.39</t>
+          <t>1621.78</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2106.81</t>
+          <t>2814.29</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2278.85</t>
+          <t>2670.27</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1871.70</t>
+          <t>2233.18</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>1236.31</t>
+          <t>2022.35</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1212.96</t>
+          <t>1470.38</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1193.23</t>
+          <t>1457.36</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1287.70</t>
+          <t>1607.97</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1273.62</t>
+          <t>1613.20</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2108.61</t>
+          <t>2811.37</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2273.47</t>
+          <t>2662.96</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>1860.48</t>
+          <t>2233.19</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>883.73</t>
+          <t>2021.32</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1211.81</t>
+          <t>1468.99</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1194.89</t>
+          <t>1450.08</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1349.14</t>
+          <t>1610.02</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1335.82</t>
+          <t>1613.59</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>2106.46</t>
+          <t>2810.41</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2267.39</t>
+          <t>2656.77</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>1853.22</t>
+          <t>2229.18</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>414.71</t>
+          <t>2014.49</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1208.75</t>
+          <t>1466.95</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1162.16</t>
+          <t>1446.56</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1346.29</t>
+          <t>1605.36</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1333.05</t>
+          <t>1616.38</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2100.20</t>
+          <t>2808.24</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>2045.38</t>
+          <t>2652.45</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>1848.70</t>
+          <t>2227.52</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>307.30</t>
+          <t>2009.65</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>944.24</t>
+          <t>1465.62</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>668.70</t>
+          <t>1445.24</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1342.25</t>
+          <t>1608.74</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1329.17</t>
+          <t>1618.31</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>2094.21</t>
+          <t>2800.89</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>1553.51</t>
+          <t>2655.37</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>1846.41</t>
+          <t>2230.60</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>273.26</t>
+          <t>2009.88</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>447.25</t>
+          <t>1471.81</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>446.90</t>
+          <t>1451.60</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1324.01</t>
+          <t>1626.84</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1268.28</t>
+          <t>1635.25</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>2491.50</t>
+          <t>2865.03</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>1759.91</t>
+          <t>2739.01</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>1887.97</t>
+          <t>2262.15</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>319.78</t>
+          <t>2034.45</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>596.90</t>
+          <t>1545.81</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>425.93</t>
+          <t>1525.33</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1377.71</t>
+          <t>1674.91</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1365.57</t>
+          <t>1685.78</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>2735.62</t>
+          <t>3625.16</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>2512.37</t>
+          <t>3273.52</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>2105.40</t>
+          <t>2921.92</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>1614.76</t>
+          <t>2469.62</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>1593.09</t>
+          <t>1970.70</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>1590.18</t>
+          <t>1968.92</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>1658.30</t>
+          <t>2362.77</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>1661.04</t>
+          <t>2376.72</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1533.19</t>
+          <t>2117.11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1366.14</t>
+          <t>2010.50</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>325.67</t>
+          <t>719.94</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1052.70</t>
+          <t>1505.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>819.01</t>
+          <t>1174.30</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>810.27</t>
+          <t>1159.90</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>877.89</t>
+          <t>1314.34</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>873.87</t>
+          <t>1310.83</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2158.21</t>
+          <t>2837.53</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1888.90</t>
+          <t>2648.97</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1679.26</t>
+          <t>2207.97</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1431.68</t>
+          <t>1962.43</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1001.16</t>
+          <t>1400.24</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>987.35</t>
+          <t>1381.90</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1124.70</t>
+          <t>1605.12</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1113.60</t>
+          <t>1617.79</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2178.88</t>
+          <t>2834.86</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>1910.02</t>
+          <t>2672.48</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1686.06</t>
+          <t>2178.51</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1454.35</t>
+          <t>1966.72</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1031.54</t>
+          <t>1413.96</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1026.87</t>
+          <t>1394.68</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1133.13</t>
+          <t>1603.31</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1128.79</t>
+          <t>1613.98</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2181.79</t>
+          <t>2829.33</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>1913.20</t>
+          <t>2679.44</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>1691.88</t>
+          <t>2171.88</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1460.11</t>
+          <t>1973.91</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1040.84</t>
+          <t>1413.39</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1035.46</t>
+          <t>1394.30</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1143.40</t>
+          <t>1595.96</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1129.36</t>
+          <t>1605.52</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2178.42</t>
+          <t>2823.30</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>1910.35</t>
+          <t>2670.72</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>1699.67</t>
+          <t>2172.12</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1458.12</t>
+          <t>1979.47</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1034.27</t>
+          <t>1405.18</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1032.79</t>
+          <t>1383.94</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1124.50</t>
+          <t>1558.09</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1114.72</t>
+          <t>1565.85</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2177.65</t>
+          <t>2818.98</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>1909.27</t>
+          <t>2665.67</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>1705.04</t>
+          <t>2174.25</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1454.13</t>
+          <t>1975.09</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1018.87</t>
+          <t>1406.79</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1020.63</t>
+          <t>1386.01</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1116.88</t>
+          <t>1554.25</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1106.91</t>
+          <t>1563.81</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2173.63</t>
+          <t>2816.81</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>1908.24</t>
+          <t>2662.65</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>1703.74</t>
+          <t>2170.14</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1451.34</t>
+          <t>1968.98</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1010.64</t>
+          <t>1414.68</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1009.19</t>
+          <t>1398.54</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1087.66</t>
+          <t>1556.74</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1078.33</t>
+          <t>1562.70</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2171.40</t>
+          <t>2818.71</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>1916.25</t>
+          <t>2664.97</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>1710.37</t>
+          <t>2171.27</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1455.12</t>
+          <t>1970.10</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1019.47</t>
+          <t>1432.38</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1021.38</t>
+          <t>1412.69</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1090.86</t>
+          <t>1559.33</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1082.15</t>
+          <t>1562.63</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2262.97</t>
+          <t>2900.85</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>1994.42</t>
+          <t>2745.79</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>1754.01</t>
+          <t>2198.18</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>1495.57</t>
+          <t>1967.13</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1106.61</t>
+          <t>1508.86</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1103.61</t>
+          <t>1488.96</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1192.81</t>
+          <t>1611.24</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1184.60</t>
+          <t>1621.37</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3010.95</t>
+          <t>3614.64</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>2631.15</t>
+          <t>3380.09</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2403.40</t>
+          <t>2934.25</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2024.42</t>
+          <t>2518.78</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>1466.07</t>
+          <t>1920.30</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>1468.18</t>
+          <t>1911.56</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>1839.75</t>
+          <t>2303.77</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>1856.67</t>
+          <t>2313.77</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1494.03</t>
+          <t>2024.87</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1449.77</t>
+          <t>1955.66</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>271.24</t>
+          <t>671.72</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1103.62</t>
+          <t>1521.96</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>849.44</t>
+          <t>1193.51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>839.85</t>
+          <t>1182.33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>862.60</t>
+          <t>1253.83</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>861.61</t>
+          <t>1253.42</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2101.26</t>
+          <t>2672.06</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2039.68</t>
+          <t>2601.54</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1606.32</t>
+          <t>2176.47</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1490.59</t>
+          <t>1968.97</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1052.60</t>
+          <t>1395.74</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1038.79</t>
+          <t>1378.69</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1054.72</t>
+          <t>1511.87</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1082.32</t>
+          <t>1524.81</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2094.79</t>
+          <t>2698.94</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2039.48</t>
+          <t>2596.64</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1570.11</t>
+          <t>2149.46</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1509.56</t>
+          <t>1971.00</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1060.57</t>
+          <t>1401.20</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1071.12</t>
+          <t>1384.33</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1091.23</t>
+          <t>1515.73</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1100.34</t>
+          <t>1526.39</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2090.71</t>
+          <t>2715.85</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2036.51</t>
+          <t>2590.49</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>1584.79</t>
+          <t>2149.31</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1511.25</t>
+          <t>1974.33</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1070.71</t>
+          <t>1403.68</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1081.93</t>
+          <t>1386.91</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1095.23</t>
+          <t>1517.93</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1108.66</t>
+          <t>1527.88</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2086.91</t>
+          <t>2714.14</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2032.99</t>
+          <t>2579.30</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>1573.93</t>
+          <t>2150.31</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1503.28</t>
+          <t>1982.10</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1062.50</t>
+          <t>1401.91</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1074.69</t>
+          <t>1376.77</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1087.51</t>
+          <t>1504.82</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1100.11</t>
+          <t>1514.85</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2083.46</t>
+          <t>2706.90</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2031.90</t>
+          <t>2573.58</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>1567.78</t>
+          <t>2147.90</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1496.94</t>
+          <t>1978.73</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1060.68</t>
+          <t>1403.36</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1072.93</t>
+          <t>1384.13</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1081.78</t>
+          <t>1505.88</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1090.46</t>
+          <t>1515.37</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2081.07</t>
+          <t>2700.07</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2029.80</t>
+          <t>2572.64</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>1565.12</t>
+          <t>2151.10</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1492.31</t>
+          <t>1973.77</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1053.95</t>
+          <t>1399.64</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1062.94</t>
+          <t>1387.44</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1075.48</t>
+          <t>1517.59</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1089.11</t>
+          <t>1523.79</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2083.51</t>
+          <t>2702.01</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2032.57</t>
+          <t>2573.74</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>1566.14</t>
+          <t>2163.46</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1493.32</t>
+          <t>1973.92</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1057.88</t>
+          <t>1404.95</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1059.44</t>
+          <t>1390.02</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1075.40</t>
+          <t>1529.79</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1082.10</t>
+          <t>1538.57</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2158.02</t>
+          <t>2771.89</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2103.14</t>
+          <t>2649.89</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>1605.55</t>
+          <t>2201.21</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>1529.45</t>
+          <t>1996.92</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1123.43</t>
+          <t>1469.88</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1112.67</t>
+          <t>1456.22</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1140.52</t>
+          <t>1585.27</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1132.23</t>
+          <t>1601.64</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>2842.95</t>
+          <t>3456.84</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>2635.62</t>
+          <t>3282.59</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2193.84</t>
+          <t>2878.02</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>1967.71</t>
+          <t>2528.47</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1437.54</t>
+          <t>1898.77</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1439.40</t>
+          <t>1902.66</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>1680.19</t>
+          <t>2263.78</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>1688.71</t>
+          <t>2278.20</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1642.78</t>
+          <t>2048.55</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1625.94</t>
+          <t>1992.71</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>311.34</t>
+          <t>884.35</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1231.54</t>
+          <t>1549.58</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>917.28</t>
+          <t>1169.34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>904.97</t>
+          <t>1158.32</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>918.04</t>
+          <t>1199.71</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>927.34</t>
+          <t>1200.65</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2231.90</t>
+          <t>2702.03</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2210.43</t>
+          <t>2588.37</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1780.52</t>
+          <t>2193.02</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1663.14</t>
+          <t>1994.13</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1120.12</t>
+          <t>1391.53</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1103.87</t>
+          <t>1373.03</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1119.94</t>
+          <t>1482.60</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1121.12</t>
+          <t>1496.93</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2231.55</t>
+          <t>2694.26</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2224.28</t>
+          <t>2584.08</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1751.16</t>
+          <t>2175.42</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1671.34</t>
+          <t>1993.38</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1126.18</t>
+          <t>1395.34</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1111.15</t>
+          <t>1377.74</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1131.91</t>
+          <t>1487.42</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1125.97</t>
+          <t>1497.74</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2231.09</t>
+          <t>2691.54</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2225.61</t>
+          <t>2581.44</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>1745.16</t>
+          <t>2170.35</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>1674.60</t>
+          <t>1989.35</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1128.56</t>
+          <t>1399.86</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1113.55</t>
+          <t>1381.23</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1134.69</t>
+          <t>1490.90</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1128.44</t>
+          <t>1500.69</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2228.99</t>
+          <t>2689.65</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2221.68</t>
+          <t>2579.95</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>1742.66</t>
+          <t>2172.99</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>1672.59</t>
+          <t>1995.61</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1130.46</t>
+          <t>1403.29</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1117.35</t>
+          <t>1384.64</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1139.41</t>
+          <t>1493.63</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1129.77</t>
+          <t>1503.29</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2231.07</t>
+          <t>2688.14</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2222.73</t>
+          <t>2578.70</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>1740.88</t>
+          <t>2170.93</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>1670.50</t>
+          <t>1993.22</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1129.41</t>
+          <t>1406.27</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1117.74</t>
+          <t>1387.63</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1139.64</t>
+          <t>1496.06</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1129.80</t>
+          <t>1505.69</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2229.33</t>
+          <t>2687.65</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2221.45</t>
+          <t>2578.43</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>1743.14</t>
+          <t>2170.11</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1669.26</t>
+          <t>1992.04</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1132.68</t>
+          <t>1409.82</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1117.79</t>
+          <t>1391.23</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1140.20</t>
+          <t>1500.99</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1130.33</t>
+          <t>1508.74</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2232.14</t>
+          <t>2687.30</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2224.83</t>
+          <t>2583.93</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>1747.09</t>
+          <t>2168.01</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>1672.77</t>
+          <t>1996.11</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1137.22</t>
+          <t>1419.39</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1125.75</t>
+          <t>1400.87</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1145.25</t>
+          <t>1508.65</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1135.05</t>
+          <t>1516.57</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2305.78</t>
+          <t>2765.50</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2297.36</t>
+          <t>2664.80</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>1778.67</t>
+          <t>2198.85</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>1701.06</t>
+          <t>2020.20</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1207.30</t>
+          <t>1493.30</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1192.16</t>
+          <t>1474.49</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1208.68</t>
+          <t>1559.48</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1198.82</t>
+          <t>1571.56</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>2830.65</t>
+          <t>3346.02</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>2786.57</t>
+          <t>3204.20</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2343.14</t>
+          <t>2847.82</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2151.85</t>
+          <t>2523.20</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>1563.93</t>
+          <t>1879.18</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>1567.07</t>
+          <t>1882.74</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>1743.33</t>
+          <t>2195.12</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>1750.33</t>
+          <t>2207.76</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1349.65</t>
+          <t>1989.54</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1338.09</t>
+          <t>1938.50</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>748.53</t>
+          <t>1060.47</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>988.76</t>
+          <t>1512.56</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>767.54</t>
+          <t>1167.62</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>760.63</t>
+          <t>1164.98</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>769.39</t>
+          <t>1188.50</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>777.71</t>
+          <t>1194.30</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>1917.74</t>
+          <t>2577.58</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1906.32</t>
+          <t>2499.73</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1481.70</t>
+          <t>2078.82</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1379.22</t>
+          <t>1914.28</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>946.64</t>
+          <t>1375.20</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>941.47</t>
+          <t>1364.36</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>945.26</t>
+          <t>1452.37</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>959.65</t>
+          <t>1470.93</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1904.34</t>
+          <t>2566.86</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>1896.40</t>
+          <t>2495.93</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1440.23</t>
+          <t>2044.16</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1377.56</t>
+          <t>1905.36</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>958.40</t>
+          <t>1375.30</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>947.91</t>
+          <t>1365.65</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>956.68</t>
+          <t>1451.89</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>960.33</t>
+          <t>1463.62</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>1897.77</t>
+          <t>2563.35</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>1890.23</t>
+          <t>2494.10</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>1430.25</t>
+          <t>2036.32</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1377.01</t>
+          <t>1900.08</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>960.32</t>
+          <t>1376.33</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>949.47</t>
+          <t>1364.29</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>957.31</t>
+          <t>1452.77</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>959.57</t>
+          <t>1463.38</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>1892.71</t>
+          <t>2561.33</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>1885.19</t>
+          <t>2492.85</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>1424.15</t>
+          <t>2038.46</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1373.42</t>
+          <t>1909.62</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>960.09</t>
+          <t>1377.83</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>952.57</t>
+          <t>1368.62</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>959.40</t>
+          <t>1454.15</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>958.42</t>
+          <t>1464.50</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>1888.37</t>
+          <t>2559.94</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>1883.19</t>
+          <t>2491.65</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>1419.34</t>
+          <t>2036.71</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1370.03</t>
+          <t>1908.43</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>957.23</t>
+          <t>1379.56</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>952.51</t>
+          <t>1370.61</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>957.70</t>
+          <t>1455.77</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>953.53</t>
+          <t>1466.20</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>1885.02</t>
+          <t>2559.57</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>1880.07</t>
+          <t>2495.97</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>1418.52</t>
+          <t>2036.29</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1366.58</t>
+          <t>1908.57</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>952.60</t>
+          <t>1381.82</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>951.62</t>
+          <t>1373.08</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>956.40</t>
+          <t>1460.09</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>949.73</t>
+          <t>1468.80</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>1886.09</t>
+          <t>2564.13</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>1881.35</t>
+          <t>2500.92</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>1418.83</t>
+          <t>2040.25</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1365.18</t>
+          <t>1911.67</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>951.53</t>
+          <t>1388.55</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>945.18</t>
+          <t>1379.85</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>956.42</t>
+          <t>1466.78</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>949.96</t>
+          <t>1475.48</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>1956.99</t>
+          <t>2639.06</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>1949.91</t>
+          <t>2575.30</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>1444.49</t>
+          <t>2067.15</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>1381.08</t>
+          <t>1930.39</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>984.28</t>
+          <t>1453.41</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>982.50</t>
+          <t>1441.09</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>970.90</t>
+          <t>1512.32</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>969.67</t>
+          <t>1522.94</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>2418.51</t>
+          <t>3130.45</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>2506.37</t>
+          <t>3094.43</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>1891.61</t>
+          <t>2591.39</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>1826.89</t>
+          <t>2361.50</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1290.54</t>
+          <t>1795.18</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1299.60</t>
+          <t>1796.88</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>1427.03</t>
+          <t>2072.48</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>1440.28</t>
+          <t>2082.07</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1421.55</t>
+          <t>1929.88</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1407.36</t>
+          <t>1845.53</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>814.70</t>
+          <t>1429.22</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1091.51</t>
+          <t>1459.13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>796.70</t>
+          <t>1116.40</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>793.86</t>
+          <t>1110.09</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>791.76</t>
+          <t>1143.35</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>805.63</t>
+          <t>1149.66</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1993.85</t>
+          <t>2508.80</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>1971.74</t>
+          <t>2412.65</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1580.57</t>
+          <t>2043.50</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1470.01</t>
+          <t>1873.19</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>989.55</t>
+          <t>1316.53</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>983.35</t>
+          <t>1304.16</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>982.81</t>
+          <t>1408.42</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>994.59</t>
+          <t>1424.67</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1977.89</t>
+          <t>2499.31</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>1959.40</t>
+          <t>2411.41</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1537.36</t>
+          <t>2008.57</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1467.56</t>
+          <t>1867.94</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>990.12</t>
+          <t>1318.57</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>984.09</t>
+          <t>1306.28</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>987.17</t>
+          <t>1408.96</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>989.33</t>
+          <t>1420.22</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>1969.70</t>
+          <t>2495.13</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>1951.49</t>
+          <t>2414.22</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>1521.85</t>
+          <t>2000.64</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1468.14</t>
+          <t>1863.06</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>990.14</t>
+          <t>1320.67</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>984.13</t>
+          <t>1311.47</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>986.75</t>
+          <t>1410.97</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>987.47</t>
+          <t>1421.24</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>1963.44</t>
+          <t>2493.78</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>1945.07</t>
+          <t>2416.08</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>1514.18</t>
+          <t>2004.14</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1465.90</t>
+          <t>1869.50</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>990.07</t>
+          <t>1325.53</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>987.09</t>
+          <t>1316.81</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>990.59</t>
+          <t>1413.19</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>986.97</t>
+          <t>1423.23</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>1958.14</t>
+          <t>2494.42</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>1941.98</t>
+          <t>2418.69</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>1511.70</t>
+          <t>2002.58</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1463.99</t>
+          <t>1868.36</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>989.85</t>
+          <t>1330.84</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>987.02</t>
+          <t>1319.33</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>990.45</t>
+          <t>1415.39</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>986.73</t>
+          <t>1425.42</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>1954.12</t>
+          <t>2495.71</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>1938.10</t>
+          <t>2426.91</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>1508.50</t>
+          <t>2005.51</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1462.22</t>
+          <t>1870.74</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>989.42</t>
+          <t>1334.04</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>986.64</t>
+          <t>1322.39</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>990.00</t>
+          <t>1420.02</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>986.12</t>
+          <t>1428.30</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>1955.02</t>
+          <t>2505.95</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>1939.29</t>
+          <t>2438.25</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>1503.45</t>
+          <t>2010.12</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>1462.31</t>
+          <t>1877.69</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>991.47</t>
+          <t>1341.66</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>988.37</t>
+          <t>1330.09</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>991.10</t>
+          <t>1427.23</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>986.83</t>
+          <t>1435.46</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2025.65</t>
+          <t>2602.83</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2007.82</t>
+          <t>2533.65</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>1496.86</t>
+          <t>2041.78</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>1473.24</t>
+          <t>1906.59</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1041.56</t>
+          <t>1406.54</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1036.83</t>
+          <t>1394.40</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1038.30</t>
+          <t>1472.89</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1032.96</t>
+          <t>1483.17</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>2474.78</t>
+          <t>3068.88</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>2550.42</t>
+          <t>3084.35</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>1975.46</t>
+          <t>2594.36</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>1890.21</t>
+          <t>2349.68</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1334.44</t>
+          <t>1746.84</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1342.74</t>
+          <t>1757.07</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>1491.35</t>
+          <t>2027.75</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>1504.92</t>
+          <t>2037.53</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1453.44</t>
+          <t>1909.60</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1391.59</t>
+          <t>1847.92</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>975.15</t>
+          <t>1577.59</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1088.68</t>
+          <t>1468.22</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>790.41</t>
+          <t>1114.22</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>788.12</t>
+          <t>1110.26</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>800.70</t>
+          <t>1151.69</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>814.90</t>
+          <t>1156.85</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2018.04</t>
+          <t>2506.76</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1932.98</t>
+          <t>2403.54</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1604.40</t>
+          <t>2062.90</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1457.50</t>
+          <t>1884.29</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>975.85</t>
+          <t>1325.28</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>970.33</t>
+          <t>1316.47</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>985.05</t>
+          <t>1417.95</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>998.49</t>
+          <t>1441.24</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1992.96</t>
+          <t>2489.46</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>1913.34</t>
+          <t>2393.79</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>1549.86</t>
+          <t>2017.91</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1449.40</t>
+          <t>1878.06</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>973.85</t>
+          <t>1325.75</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>968.45</t>
+          <t>1318.06</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>986.65</t>
+          <t>1415.38</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>990.99</t>
+          <t>1435.04</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>1980.50</t>
+          <t>2483.51</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>1902.02</t>
+          <t>2394.70</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>1530.49</t>
+          <t>2006.73</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1446.12</t>
+          <t>1873.31</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>972.16</t>
+          <t>1327.20</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>967.85</t>
+          <t>1320.97</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>984.38</t>
+          <t>1417.88</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>987.33</t>
+          <t>1434.41</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>1971.57</t>
+          <t>2483.54</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>1893.52</t>
+          <t>2399.28</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1521.31</t>
+          <t>2010.99</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1441.78</t>
+          <t>1880.40</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>970.87</t>
+          <t>1331.70</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>970.61</t>
+          <t>1323.25</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>986.80</t>
+          <t>1422.70</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>985.38</t>
+          <t>1436.19</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>1964.27</t>
+          <t>2487.88</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>1888.77</t>
+          <t>2403.80</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>1515.39</t>
+          <t>2016.50</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1439.52</t>
+          <t>1885.17</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>969.77</t>
+          <t>1335.81</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>970.39</t>
+          <t>1325.99</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>985.64</t>
+          <t>1425.73</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>984.04</t>
+          <t>1439.05</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>1958.33</t>
+          <t>2492.74</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>1883.29</t>
+          <t>2408.74</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>1513.49</t>
+          <t>2019.92</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1437.83</t>
+          <t>1888.22</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>969.00</t>
+          <t>1339.02</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>969.73</t>
+          <t>1329.35</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>984.43</t>
+          <t>1431.18</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>982.62</t>
+          <t>1442.81</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>1956.57</t>
+          <t>2502.51</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>1882.13</t>
+          <t>2418.48</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>1513.38</t>
+          <t>2025.25</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1439.06</t>
+          <t>1893.00</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>970.86</t>
+          <t>1346.68</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>970.84</t>
+          <t>1337.04</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>985.24</t>
+          <t>1438.34</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>983.03</t>
+          <t>1449.88</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2021.12</t>
+          <t>2591.61</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>1944.11</t>
+          <t>2504.87</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>1529.59</t>
+          <t>2049.93</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1452.46</t>
+          <t>1911.74</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1021.61</t>
+          <t>1410.16</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1017.81</t>
+          <t>1399.77</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1032.14</t>
+          <t>1480.34</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1028.87</t>
+          <t>1493.33</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2455.72</t>
+          <t>2967.76</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>2460.04</t>
+          <t>3064.80</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2012.02</t>
+          <t>2621.57</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>1840.16</t>
+          <t>2350.39</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1300.54</t>
+          <t>1723.99</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1313.15</t>
+          <t>1731.38</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>1534.58</t>
+          <t>2028.12</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>1551.88</t>
+          <t>2042.53</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1581.50</t>
+          <t>2067.41</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1524.44</t>
+          <t>1995.01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>990.06</t>
+          <t>1493.42</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1278.00</t>
+          <t>1540.48</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>962.76</t>
+          <t>1160.61</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>959.87</t>
+          <t>1153.84</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>996.26</t>
+          <t>1253.96</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1010.44</t>
+          <t>1259.26</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2079.47</t>
+          <t>2690.62</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1984.78</t>
+          <t>2581.48</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1815.43</t>
+          <t>2195.93</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1609.94</t>
+          <t>1962.73</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1150.38</t>
+          <t>1374.87</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1143.94</t>
+          <t>1358.37</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1179.46</t>
+          <t>1530.11</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1200.90</t>
+          <t>1547.74</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2056.60</t>
+          <t>2679.41</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>1965.38</t>
+          <t>2577.35</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1718.26</t>
+          <t>2158.53</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1586.48</t>
+          <t>1958.40</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1149.57</t>
+          <t>1378.78</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1142.91</t>
+          <t>1361.79</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1177.34</t>
+          <t>1527.50</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1183.24</t>
+          <t>1540.41</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2048.78</t>
+          <t>2677.45</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>1954.90</t>
+          <t>2575.90</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>1692.69</t>
+          <t>2151.28</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1582.56</t>
+          <t>1953.85</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1149.33</t>
+          <t>1383.99</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1142.67</t>
+          <t>1364.07</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1176.51</t>
+          <t>1528.22</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1181.13</t>
+          <t>1540.79</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2044.23</t>
+          <t>2677.69</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>1950.69</t>
+          <t>2576.11</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1684.74</t>
+          <t>2153.05</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1579.76</t>
+          <t>1961.35</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1149.27</t>
+          <t>1386.36</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1141.48</t>
+          <t>1366.49</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1180.38</t>
+          <t>1530.38</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1180.53</t>
+          <t>1542.85</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2040.70</t>
+          <t>2678.37</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>1950.04</t>
+          <t>2576.50</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>1680.99</t>
+          <t>2152.84</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1578.19</t>
+          <t>1959.24</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1149.17</t>
+          <t>1388.68</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1141.59</t>
+          <t>1368.92</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1180.29</t>
+          <t>1532.88</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1175.77</t>
+          <t>1545.18</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2037.44</t>
+          <t>2679.90</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>1947.74</t>
+          <t>2577.75</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>1679.90</t>
+          <t>2153.87</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1576.00</t>
+          <t>1960.44</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1149.08</t>
+          <t>1391.68</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1141.52</t>
+          <t>1372.03</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1179.85</t>
+          <t>1537.56</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1175.10</t>
+          <t>1548.25</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2036.22</t>
+          <t>2686.97</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>1948.31</t>
+          <t>2584.47</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>1675.14</t>
+          <t>2159.69</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1573.66</t>
+          <t>1967.34</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1151.74</t>
+          <t>1400.41</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1143.79</t>
+          <t>1380.83</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1180.87</t>
+          <t>1545.77</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1175.45</t>
+          <t>1555.74</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2077.12</t>
+          <t>2769.73</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2000.01</t>
+          <t>2664.72</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>1666.92</t>
+          <t>2187.29</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>1574.83</t>
+          <t>1990.76</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1202.00</t>
+          <t>1476.22</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1192.45</t>
+          <t>1456.81</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1221.85</t>
+          <t>1594.31</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1220.52</t>
+          <t>1605.14</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>2570.92</t>
+          <t>3313.61</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>2481.63</t>
+          <t>3206.10</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2134.79</t>
+          <t>2769.40</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>1949.02</t>
+          <t>2496.69</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1377.97</t>
+          <t>1861.67</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1385.61</t>
+          <t>1862.11</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>1630.20</t>
+          <t>2172.67</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>1644.12</t>
+          <t>2184.13</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2028.51</t>
+          <t>2108.12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1878.31</t>
+          <t>2002.47</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1190.03</t>
+          <t>1690.64</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1480.58</t>
+          <t>1545.77</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1097.09</t>
+          <t>1195.38</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1087.94</t>
+          <t>1183.76</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1122.72</t>
+          <t>1317.44</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1131.47</t>
+          <t>1333.13</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2684.27</t>
+          <t>2767.16</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2464.35</t>
+          <t>2599.12</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2147.05</t>
+          <t>2266.82</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1919.48</t>
+          <t>1952.76</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1308.31</t>
+          <t>1402.65</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1292.91</t>
+          <t>1384.26</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1382.68</t>
+          <t>1597.31</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1386.77</t>
+          <t>1617.51</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2680.67</t>
+          <t>2747.15</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2502.60</t>
+          <t>2601.25</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2157.72</t>
+          <t>2233.70</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>1926.23</t>
+          <t>1953.94</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1310.85</t>
+          <t>1394.13</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1296.34</t>
+          <t>1375.98</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1415.36</t>
+          <t>1591.07</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1382.97</t>
+          <t>1605.74</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2679.07</t>
+          <t>2740.91</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2511.72</t>
+          <t>2602.19</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2144.84</t>
+          <t>2217.49</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>1931.63</t>
+          <t>1958.72</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1341.08</t>
+          <t>1392.86</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1300.89</t>
+          <t>1373.26</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1420.46</t>
+          <t>1565.61</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1410.80</t>
+          <t>1585.13</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2679.89</t>
+          <t>2741.22</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2505.96</t>
+          <t>2602.78</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2146.18</t>
+          <t>2213.56</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>1928.28</t>
+          <t>1971.17</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1341.39</t>
+          <t>1394.55</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1328.61</t>
+          <t>1377.03</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1425.37</t>
+          <t>1560.08</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1415.29</t>
+          <t>1576.69</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2681.76</t>
+          <t>2740.59</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2504.28</t>
+          <t>2603.34</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2144.00</t>
+          <t>2210.87</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>1927.91</t>
+          <t>1969.90</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1338.85</t>
+          <t>1396.24</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1330.75</t>
+          <t>1378.77</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1428.04</t>
+          <t>1560.29</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1416.13</t>
+          <t>1572.71</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2681.44</t>
+          <t>2740.90</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2495.02</t>
+          <t>2604.65</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2146.96</t>
+          <t>2210.16</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1926.66</t>
+          <t>1969.86</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1333.82</t>
+          <t>1398.56</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1328.99</t>
+          <t>1380.96</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1430.45</t>
+          <t>1560.76</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1419.79</t>
+          <t>1574.52</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>2686.47</t>
+          <t>2746.20</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2499.37</t>
+          <t>2610.22</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2152.27</t>
+          <t>2212.96</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>1932.34</t>
+          <t>1975.14</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1332.03</t>
+          <t>1406.17</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1335.03</t>
+          <t>1388.64</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1439.66</t>
+          <t>1567.21</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1425.64</t>
+          <t>1578.37</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>2765.02</t>
+          <t>2823.86</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>2558.60</t>
+          <t>2692.08</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2180.96</t>
+          <t>2240.75</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>1955.22</t>
+          <t>2006.29</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1385.49</t>
+          <t>1475.92</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1395.55</t>
+          <t>1457.24</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1511.94</t>
+          <t>1622.35</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1501.98</t>
+          <t>1635.89</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3465.19</t>
+          <t>3434.38</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3165.35</t>
+          <t>3228.20</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>2847.26</t>
+          <t>2852.26</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>2559.50</t>
+          <t>2559.69</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>1807.01</t>
+          <t>1878.43</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>1820.54</t>
+          <t>1878.93</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2160.50</t>
+          <t>2253.54</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2177.36</t>
+          <t>2265.43</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2180.15</t>
+          <t>2141.07</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1967.19</t>
+          <t>2030.04</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>972.29</t>
+          <t>1310.80</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1534.61</t>
+          <t>1557.74</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1171.27</t>
+          <t>1239.68</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1158.32</t>
+          <t>1229.92</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1271.54</t>
+          <t>1334.22</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1263.11</t>
+          <t>1334.28</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2851.30</t>
+          <t>2759.59</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2578.96</t>
+          <t>2648.17</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2244.46</t>
+          <t>2260.22</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1971.32</t>
+          <t>1981.80</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1392.60</t>
+          <t>1466.26</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1374.89</t>
+          <t>1447.17</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1503.43</t>
+          <t>1602.80</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1501.26</t>
+          <t>1636.77</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2858.94</t>
+          <t>2746.79</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2572.64</t>
+          <t>2655.74</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2244.23</t>
+          <t>2210.00</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>1968.25</t>
+          <t>1988.20</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1392.18</t>
+          <t>1473.04</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1374.38</t>
+          <t>1454.93</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1521.86</t>
+          <t>1601.35</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1514.47</t>
+          <t>1616.80</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2848.77</t>
+          <t>2742.37</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2559.43</t>
+          <t>2658.32</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2223.94</t>
+          <t>2194.21</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>1958.39</t>
+          <t>1990.35</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1387.88</t>
+          <t>1469.43</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1369.95</t>
+          <t>1454.53</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1515.54</t>
+          <t>1596.99</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1514.72</t>
+          <t>1608.14</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>2842.98</t>
+          <t>2739.80</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2422.79</t>
+          <t>2656.68</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2218.52</t>
+          <t>2197.59</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>1946.01</t>
+          <t>1997.02</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1381.77</t>
+          <t>1420.67</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1367.08</t>
+          <t>1416.66</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1523.22</t>
+          <t>1592.99</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1505.14</t>
+          <t>1605.35</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>2809.21</t>
+          <t>2738.05</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2423.51</t>
+          <t>2655.29</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2218.53</t>
+          <t>2196.25</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>1849.19</t>
+          <t>1995.97</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1344.29</t>
+          <t>1422.40</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1362.42</t>
+          <t>1417.60</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1523.72</t>
+          <t>1587.64</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1511.85</t>
+          <t>1599.72</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>2804.48</t>
+          <t>2740.00</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2423.10</t>
+          <t>2654.84</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2198.67</t>
+          <t>2196.30</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1847.92</t>
+          <t>1993.66</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1312.48</t>
+          <t>1424.70</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1298.68</t>
+          <t>1419.44</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1498.07</t>
+          <t>1592.89</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1485.80</t>
+          <t>1599.75</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>2808.29</t>
+          <t>2747.74</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2428.62</t>
+          <t>2656.09</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2210.58</t>
+          <t>2200.35</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>1852.25</t>
+          <t>1993.57</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1319.07</t>
+          <t>1431.99</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1305.28</t>
+          <t>1414.63</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1503.73</t>
+          <t>1595.98</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1491.49</t>
+          <t>1605.46</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>2894.28</t>
+          <t>2834.71</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>2509.61</t>
+          <t>2737.10</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2243.68</t>
+          <t>2224.15</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>1884.50</t>
+          <t>2026.01</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>1393.06</t>
+          <t>1555.52</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1379.11</t>
+          <t>1539.80</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>1572.86</t>
+          <t>1663.11</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>1569.03</t>
+          <t>1673.09</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>3697.36</t>
+          <t>3394.48</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>2982.48</t>
+          <t>3343.96</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>2892.61</t>
+          <t>2842.08</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2316.77</t>
+          <t>2522.26</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>1734.60</t>
+          <t>1945.00</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>1737.18</t>
+          <t>1944.09</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2280.22</t>
+          <t>2286.61</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2296.23</t>
+          <t>2302.10</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2087.45</t>
+          <t>2106.02</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1741.84</t>
+          <t>2016.24</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>452.64</t>
+          <t>668.88</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1346.31</t>
+          <t>1545.59</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1045.66</t>
+          <t>1187.29</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1032.80</t>
+          <t>1177.87</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1239.12</t>
+          <t>1297.22</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1269.56</t>
+          <t>1338.82</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2888.69</t>
+          <t>2820.88</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2301.98</t>
+          <t>2642.79</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2289.28</t>
+          <t>2251.68</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1748.08</t>
+          <t>1966.71</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1253.93</t>
+          <t>1434.14</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1236.71</t>
+          <t>1414.15</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1539.54</t>
+          <t>1641.09</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1538.57</t>
+          <t>1650.27</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2887.21</t>
+          <t>2813.85</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2303.96</t>
+          <t>2675.54</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2273.00</t>
+          <t>2210.84</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1753.59</t>
+          <t>1963.96</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1258.57</t>
+          <t>1441.52</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1241.39</t>
+          <t>1422.31</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1552.47</t>
+          <t>1647.22</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1543.12</t>
+          <t>1654.99</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2873.43</t>
+          <t>2808.37</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2296.79</t>
+          <t>2686.69</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2249.40</t>
+          <t>2194.00</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>1750.81</t>
+          <t>1956.59</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1326.67</t>
+          <t>1441.77</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1309.41</t>
+          <t>1421.23</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1549.45</t>
+          <t>1644.53</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1539.43</t>
+          <t>1651.92</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2856.43</t>
+          <t>2798.94</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2286.25</t>
+          <t>2691.72</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2233.39</t>
+          <t>2190.39</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>1741.51</t>
+          <t>1960.26</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1321.07</t>
+          <t>1426.10</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1306.77</t>
+          <t>1407.32</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1552.73</t>
+          <t>1599.23</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1539.28</t>
+          <t>1608.81</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2847.23</t>
+          <t>2762.03</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2280.67</t>
+          <t>2695.50</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2185.77</t>
+          <t>2185.54</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>1735.01</t>
+          <t>1958.11</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1269.51</t>
+          <t>1427.08</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1256.66</t>
+          <t>1408.32</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1461.77</t>
+          <t>1601.96</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1449.33</t>
+          <t>1611.53</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2798.04</t>
+          <t>2761.00</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2149.52</t>
+          <t>2698.64</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2146.54</t>
+          <t>2183.57</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1730.56</t>
+          <t>1957.84</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1245.68</t>
+          <t>1428.71</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1231.84</t>
+          <t>1409.99</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1462.77</t>
+          <t>1606.21</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1450.37</t>
+          <t>1613.90</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2765.29</t>
+          <t>2765.00</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2076.34</t>
+          <t>2702.78</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2135.64</t>
+          <t>2185.06</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>1527.23</t>
+          <t>1961.85</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1249.41</t>
+          <t>1435.65</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1235.74</t>
+          <t>1416.86</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1468.32</t>
+          <t>1611.04</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1456.05</t>
+          <t>1618.73</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>2883.39</t>
+          <t>2846.46</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2150.70</t>
+          <t>2783.10</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2272.51</t>
+          <t>2218.28</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>1538.14</t>
+          <t>1988.54</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1369.42</t>
+          <t>1503.29</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1355.39</t>
+          <t>1484.55</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1594.46</t>
+          <t>1650.08</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1583.70</t>
+          <t>1660.57</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>3703.49</t>
+          <t>3634.49</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3100.28</t>
+          <t>3310.25</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>2865.58</t>
+          <t>2937.89</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2059.92</t>
+          <t>2502.79</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>1544.60</t>
+          <t>1934.44</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>1545.90</t>
+          <t>1927.80</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2300.65</t>
+          <t>2373.85</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2313.17</t>
+          <t>2390.13</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1349.65</t>
+          <t>1909.60</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>136.47</t>
+          <t>1845.53</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>271.24</t>
+          <t>663.15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>135.49</t>
+          <t>1459.13</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>146.90</t>
+          <t>1114.22</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>146.61</t>
+          <t>1110.09</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>769.39</t>
+          <t>1143.35</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>777.71</t>
+          <t>1149.66</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1917.74</t>
+          <t>2506.76</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1860.62</t>
+          <t>2403.54</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1481.70</t>
+          <t>2043.50</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>278.77</t>
+          <t>1873.19</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>946.64</t>
+          <t>1316.53</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>941.47</t>
+          <t>1304.16</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>945.26</t>
+          <t>1408.42</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>959.65</t>
+          <t>1424.67</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>1904.34</t>
+          <t>2489.46</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>1882.96</t>
+          <t>2393.79</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1440.23</t>
+          <t>2008.57</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1290.83</t>
+          <t>1867.94</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>958.40</t>
+          <t>1318.57</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>947.91</t>
+          <t>1306.28</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>956.68</t>
+          <t>1408.96</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>960.33</t>
+          <t>1420.22</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>1897.77</t>
+          <t>2483.51</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>1886.13</t>
+          <t>2394.70</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>1430.25</t>
+          <t>2000.64</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1236.31</t>
+          <t>1863.06</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>960.32</t>
+          <t>1320.67</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>949.47</t>
+          <t>1311.47</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>957.31</t>
+          <t>1410.97</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>959.57</t>
+          <t>1421.24</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>1892.71</t>
+          <t>2483.54</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>1882.61</t>
+          <t>2399.28</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1424.15</t>
+          <t>2004.14</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>883.73</t>
+          <t>1869.50</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>960.09</t>
+          <t>1325.53</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>952.57</t>
+          <t>1316.81</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>959.40</t>
+          <t>1413.19</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>958.42</t>
+          <t>1423.23</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>1888.37</t>
+          <t>2487.88</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>1879.05</t>
+          <t>2403.80</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>1419.34</t>
+          <t>2002.58</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>414.71</t>
+          <t>1868.36</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>957.23</t>
+          <t>1330.84</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>952.51</t>
+          <t>1319.33</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>957.70</t>
+          <t>1415.39</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>953.53</t>
+          <t>1425.42</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>1885.02</t>
+          <t>2492.74</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>1875.32</t>
+          <t>2408.74</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>1418.52</t>
+          <t>2005.51</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>307.30</t>
+          <t>1870.74</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>944.24</t>
+          <t>1334.04</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>668.70</t>
+          <t>1322.39</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>956.40</t>
+          <t>1420.02</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>949.73</t>
+          <t>1428.30</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>1886.09</t>
+          <t>2502.51</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>1553.51</t>
+          <t>2418.48</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>1418.83</t>
+          <t>2010.12</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>273.26</t>
+          <t>1877.69</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>447.25</t>
+          <t>1341.66</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>446.90</t>
+          <t>1330.09</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>956.42</t>
+          <t>1427.23</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>949.96</t>
+          <t>1435.46</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>1956.99</t>
+          <t>2591.61</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>1759.91</t>
+          <t>2504.87</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>1444.49</t>
+          <t>2041.78</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>319.78</t>
+          <t>1906.59</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>596.90</t>
+          <t>1406.54</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>425.93</t>
+          <t>1394.40</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>970.90</t>
+          <t>1472.89</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>969.67</t>
+          <t>1483.17</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>2418.51</t>
+          <t>2967.76</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>2129.68</t>
+          <t>3064.80</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>1891.61</t>
+          <t>2591.39</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>1285.51</t>
+          <t>2349.68</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>1290.54</t>
+          <t>1723.99</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>1299.60</t>
+          <t>1731.38</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>1427.03</t>
+          <t>2027.75</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>1440.28</t>
+          <t>2037.53</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2180.15</t>
+          <t>2193.60</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1967.19</t>
+          <t>2040.80</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1190.03</t>
+          <t>1690.64</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1534.61</t>
+          <t>1557.74</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1171.27</t>
+          <t>1239.68</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1158.32</t>
+          <t>1229.92</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1271.54</t>
+          <t>1334.22</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1269.56</t>
+          <t>1338.82</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2888.69</t>
+          <t>2837.53</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2578.96</t>
+          <t>2712.92</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2289.28</t>
+          <t>2266.82</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>1971.32</t>
+          <t>2058.36</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1392.60</t>
+          <t>1509.79</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1374.89</t>
+          <t>1489.17</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1539.54</t>
+          <t>1641.09</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1538.57</t>
+          <t>1650.27</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2887.21</t>
+          <t>2834.86</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2572.64</t>
+          <t>2679.95</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2273.00</t>
+          <t>2247.22</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>1968.25</t>
+          <t>2031.60</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1392.18</t>
+          <t>1501.88</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1374.38</t>
+          <t>1476.42</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1552.47</t>
+          <t>1647.22</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1543.12</t>
+          <t>1654.99</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2873.43</t>
+          <t>2829.33</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2559.43</t>
+          <t>2686.69</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2249.40</t>
+          <t>2233.18</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>1958.39</t>
+          <t>2022.35</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1387.88</t>
+          <t>1470.38</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1369.95</t>
+          <t>1457.36</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1549.45</t>
+          <t>1644.53</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1539.43</t>
+          <t>1651.92</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>2856.43</t>
+          <t>2823.30</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2505.96</t>
+          <t>2691.72</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2233.39</t>
+          <t>2233.19</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>1946.01</t>
+          <t>2021.32</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1381.77</t>
+          <t>1468.99</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1367.08</t>
+          <t>1450.08</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1552.73</t>
+          <t>1611.29</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1539.28</t>
+          <t>1639.66</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>2847.23</t>
+          <t>2818.98</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2504.28</t>
+          <t>2695.50</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2218.53</t>
+          <t>2229.18</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>1927.91</t>
+          <t>2014.49</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1344.29</t>
+          <t>1466.95</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1362.42</t>
+          <t>1446.56</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1523.72</t>
+          <t>1606.95</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1511.85</t>
+          <t>1616.77</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>2804.48</t>
+          <t>2816.81</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2495.02</t>
+          <t>2698.64</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2198.67</t>
+          <t>2227.52</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1926.66</t>
+          <t>2009.65</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1333.82</t>
+          <t>1465.62</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1328.99</t>
+          <t>1445.24</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>1498.07</t>
+          <t>1611.19</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1485.80</t>
+          <t>1619.65</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>2808.29</t>
+          <t>2818.71</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>2499.37</t>
+          <t>2702.78</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2210.58</t>
+          <t>2230.60</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>1932.34</t>
+          <t>2009.88</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1332.03</t>
+          <t>1471.81</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1335.03</t>
+          <t>1451.60</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1503.73</t>
+          <t>1626.84</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1491.49</t>
+          <t>1635.25</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>2894.28</t>
+          <t>2900.85</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>2558.60</t>
+          <t>2783.10</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2272.51</t>
+          <t>2262.15</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>1955.22</t>
+          <t>2034.45</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>1393.06</t>
+          <t>1555.52</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1395.55</t>
+          <t>1539.80</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>1594.46</t>
+          <t>1674.91</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>1583.70</t>
+          <t>1685.78</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>3703.49</t>
+          <t>3650.69</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3165.35</t>
+          <t>3380.09</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>2892.61</t>
+          <t>2937.89</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>2559.50</t>
+          <t>2559.69</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>1807.01</t>
+          <t>1970.70</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>1820.54</t>
+          <t>1968.92</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2300.65</t>
+          <t>2373.85</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2313.17</t>
+          <t>2390.13</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">

--- a/ASHRAE901_ApartmentHighRise_STD2019_SeattleTable.html+a.xlsx
+++ b/ASHRAE901_ApartmentHighRise_STD2019_SeattleTable.html+a.xlsx
@@ -877,42 +877,42 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2088.26</t>
+          <t>2271.37</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1918.64</t>
+          <t>1800.14</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>663.15</t>
+          <t>1026.74</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1470.11</t>
+          <t>1341.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1140.39</t>
+          <t>998.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1128.77</t>
+          <t>1026.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1321.83</t>
+          <t>1352.39</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1333.44</t>
+          <t>1358.30</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -922,42 +922,42 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2779.54</t>
+          <t>2938.14</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2553.34</t>
+          <t>2440.35</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2243.30</t>
+          <t>2377.61</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1925.47</t>
+          <t>1928.87</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1382.70</t>
+          <t>1373.00</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1364.05</t>
+          <t>1351.12</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>1627.57</t>
+          <t>1680.88</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1649.97</t>
+          <t>1697.89</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -967,42 +967,42 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2785.17</t>
+          <t>2926.15</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2568.70</t>
+          <t>2450.60</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>2207.72</t>
+          <t>2349.53</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>1927.46</t>
+          <t>1932.12</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1398.65</t>
+          <t>1377.51</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>1381.75</t>
+          <t>1354.93</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1635.35</t>
+          <t>1671.89</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1647.24</t>
+          <t>1686.11</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -1012,42 +1012,42 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2765.97</t>
+          <t>2918.79</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2577.13</t>
+          <t>2454.00</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2194.97</t>
+          <t>2336.42</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>1922.90</t>
+          <t>1838.09</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>1401.23</t>
+          <t>1276.42</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>1387.84</t>
+          <t>1234.02</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>1631.42</t>
+          <t>1665.75</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>1645.05</t>
+          <t>1678.50</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1057,42 +1057,42 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>2742.85</t>
+          <t>2911.92</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>2555.73</t>
+          <t>2461.37</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>2189.38</t>
+          <t>2323.85</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>1927.49</t>
+          <t>1838.36</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1402.03</t>
+          <t>1314.98</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>1383.80</t>
+          <t>1236.42</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>1611.29</t>
+          <t>1668.72</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>1639.66</t>
+          <t>1670.94</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
@@ -1102,42 +1102,42 @@
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>2745.06</t>
+          <t>2905.81</t>
         </is>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
-          <t>2552.46</t>
+          <t>2527.43</t>
         </is>
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>2178.59</t>
+          <t>2321.00</t>
         </is>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>1920.92</t>
+          <t>1821.75</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>1398.05</t>
+          <t>1379.03</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>1382.74</t>
+          <t>1360.17</t>
         </is>
       </c>
       <c r="AZ3" t="inlineStr">
         <is>
-          <t>1606.95</t>
+          <t>1692.61</t>
         </is>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
-          <t>1616.77</t>
+          <t>1702.53</t>
         </is>
       </c>
       <c r="BB3" t="inlineStr">
@@ -1147,42 +1147,42 @@
       </c>
       <c r="BC3" t="inlineStr">
         <is>
-          <t>2747.28</t>
+          <t>2902.06</t>
         </is>
       </c>
       <c r="BD3" t="inlineStr">
         <is>
-          <t>2550.92</t>
+          <t>2470.34</t>
         </is>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
-          <t>2144.88</t>
+          <t>2318.70</t>
         </is>
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1918.28</t>
+          <t>1819.53</t>
         </is>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
-          <t>1395.05</t>
+          <t>1374.91</t>
         </is>
       </c>
       <c r="BH3" t="inlineStr">
         <is>
-          <t>1381.04</t>
+          <t>1356.63</t>
         </is>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
-          <t>1611.19</t>
+          <t>1684.06</t>
         </is>
       </c>
       <c r="BJ3" t="inlineStr">
         <is>
-          <t>1619.65</t>
+          <t>1694.07</t>
         </is>
       </c>
       <c r="BK3" t="inlineStr">
@@ -1192,42 +1192,42 @@
       </c>
       <c r="BL3" t="inlineStr">
         <is>
-          <t>2750.35</t>
+          <t>2899.50</t>
         </is>
       </c>
       <c r="BM3" t="inlineStr">
         <is>
-          <t>2555.14</t>
+          <t>2474.92</t>
         </is>
       </c>
       <c r="BN3" t="inlineStr">
         <is>
-          <t>2147.55</t>
+          <t>2319.04</t>
         </is>
       </c>
       <c r="BO3" t="inlineStr">
         <is>
-          <t>1920.84</t>
+          <t>1825.96</t>
         </is>
       </c>
       <c r="BP3" t="inlineStr">
         <is>
-          <t>1401.61</t>
+          <t>1300.31</t>
         </is>
       </c>
       <c r="BQ3" t="inlineStr">
         <is>
-          <t>1383.42</t>
+          <t>1283.40</t>
         </is>
       </c>
       <c r="BR3" t="inlineStr">
         <is>
-          <t>1617.18</t>
+          <t>1689.03</t>
         </is>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
-          <t>1625.64</t>
+          <t>1698.88</t>
         </is>
       </c>
       <c r="BT3" t="inlineStr">
@@ -1237,42 +1237,42 @@
       </c>
       <c r="BU3" t="inlineStr">
         <is>
-          <t>2803.83</t>
+          <t>2975.53</t>
         </is>
       </c>
       <c r="BV3" t="inlineStr">
         <is>
-          <t>2635.65</t>
+          <t>2555.51</t>
         </is>
       </c>
       <c r="BW3" t="inlineStr">
         <is>
-          <t>2177.07</t>
+          <t>2347.02</t>
         </is>
       </c>
       <c r="BX3" t="inlineStr">
         <is>
-          <t>1947.78</t>
+          <t>1848.29</t>
         </is>
       </c>
       <c r="BY3" t="inlineStr">
         <is>
-          <t>1477.93</t>
+          <t>1360.38</t>
         </is>
       </c>
       <c r="BZ3" t="inlineStr">
         <is>
-          <t>1459.86</t>
+          <t>1342.62</t>
         </is>
       </c>
       <c r="CA3" t="inlineStr">
         <is>
-          <t>1655.77</t>
+          <t>1739.48</t>
         </is>
       </c>
       <c r="CB3" t="inlineStr">
         <is>
-          <t>1666.04</t>
+          <t>1750.34</t>
         </is>
       </c>
       <c r="CC3" t="inlineStr">
@@ -1282,42 +1282,42 @@
       </c>
       <c r="CD3" t="inlineStr">
         <is>
-          <t>3650.69</t>
+          <t>3627.75</t>
         </is>
       </c>
       <c r="CE3" t="inlineStr">
         <is>
-          <t>3218.71</t>
+          <t>3129.11</t>
         </is>
       </c>
       <c r="CF3" t="inlineStr">
         <is>
-          <t>2823.70</t>
+          <t>2893.94</t>
         </is>
       </c>
       <c r="CG3" t="inlineStr">
         <is>
-          <t>2394.00</t>
+          <t>2286.11</t>
         </is>
       </c>
       <c r="CH3" t="inlineStr">
         <is>
-          <t>1877.77</t>
+          <t>1686.86</t>
         </is>
       </c>
       <c r="CI3" t="inlineStr">
         <is>
-          <t>1874.95</t>
+          <t>1685.08</t>
         </is>
       </c>
       <c r="CJ3" t="inlineStr">
         <is>
-          <t>2279.71</t>
+          <t>2383.76</t>
         </is>
       </c>
       <c r="CK3" t="inlineStr">
         <is>
-          <t>2291.26</t>
+          <t>2392.79</t>
         </is>
       </c>
       <c r="CL3" t="inlineStr">
@@ -1329,42 +1329,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2193.60</t>
+          <t>2210.30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2040.80</t>
+          <t>1899.16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>762.67</t>
+          <t>884.86</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1556.17</t>
+          <t>1528.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1171.75</t>
+          <t>1178.46</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1148.58</t>
+          <t>1166.38</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1312.04</t>
+          <t>1350.07</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1313.65</t>
+          <t>1353.24</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -1374,42 +1374,42 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>2820.80</t>
+          <t>2929.56</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2712.92</t>
+          <t>2642.41</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2250.54</t>
+          <t>2328.87</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2058.36</t>
+          <t>2016.79</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>1509.79</t>
+          <t>1438.83</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1489.17</t>
+          <t>1418.19</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1618.17</t>
+          <t>1664.52</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1628.29</t>
+          <t>1677.75</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1419,42 +1419,42 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2817.13</t>
+          <t>2928.45</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>2679.95</t>
+          <t>2643.60</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>2247.22</t>
+          <t>2320.21</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>2031.60</t>
+          <t>2021.12</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1501.88</t>
+          <t>1442.61</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1476.42</t>
+          <t>1421.91</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1615.99</t>
+          <t>1665.03</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>1621.78</t>
+          <t>1675.08</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1464,42 +1464,42 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2814.29</t>
+          <t>2926.87</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2670.27</t>
+          <t>2640.69</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>2233.18</t>
+          <t>2316.50</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>2022.35</t>
+          <t>1968.93</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>1470.38</t>
+          <t>1409.33</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>1457.36</t>
+          <t>1388.86</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>1607.97</t>
+          <t>1664.20</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>1613.20</t>
+          <t>1673.72</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1509,42 +1509,42 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>2811.37</t>
+          <t>2924.15</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>2662.96</t>
+          <t>2636.41</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>2233.19</t>
+          <t>2312.99</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>2021.32</t>
+          <t>1959.98</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1468.99</t>
+          <t>1403.87</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>1450.08</t>
+          <t>1385.28</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>1610.02</t>
+          <t>1669.32</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>1613.59</t>
+          <t>1676.19</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
@@ -1554,42 +1554,42 @@
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>2810.41</t>
+          <t>2920.28</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>2656.77</t>
+          <t>2493.99</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>2229.18</t>
+          <t>2307.34</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>2014.49</t>
+          <t>1956.38</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>1466.95</t>
+          <t>1399.62</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>1446.56</t>
+          <t>1381.10</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1605.36</t>
+          <t>1670.71</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>1616.38</t>
+          <t>1680.54</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
@@ -1599,42 +1599,42 @@
       </c>
       <c r="BC4" t="inlineStr">
         <is>
-          <t>2808.24</t>
+          <t>2918.97</t>
         </is>
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>2652.45</t>
+          <t>2490.77</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>2227.52</t>
+          <t>2302.81</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2009.65</t>
+          <t>1924.32</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
-          <t>1465.62</t>
+          <t>1396.73</t>
         </is>
       </c>
       <c r="BH4" t="inlineStr">
         <is>
-          <t>1445.24</t>
+          <t>1376.80</t>
         </is>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
-          <t>1608.74</t>
+          <t>1669.78</t>
         </is>
       </c>
       <c r="BJ4" t="inlineStr">
         <is>
-          <t>1618.31</t>
+          <t>1679.23</t>
         </is>
       </c>
       <c r="BK4" t="inlineStr">
@@ -1644,42 +1644,42 @@
       </c>
       <c r="BL4" t="inlineStr">
         <is>
-          <t>2800.89</t>
+          <t>2903.94</t>
         </is>
       </c>
       <c r="BM4" t="inlineStr">
         <is>
-          <t>2655.37</t>
+          <t>2576.17</t>
         </is>
       </c>
       <c r="BN4" t="inlineStr">
         <is>
-          <t>2230.60</t>
+          <t>2299.92</t>
         </is>
       </c>
       <c r="BO4" t="inlineStr">
         <is>
-          <t>2009.88</t>
+          <t>1925.43</t>
         </is>
       </c>
       <c r="BP4" t="inlineStr">
         <is>
-          <t>1471.81</t>
+          <t>1396.44</t>
         </is>
       </c>
       <c r="BQ4" t="inlineStr">
         <is>
-          <t>1451.60</t>
+          <t>1378.33</t>
         </is>
       </c>
       <c r="BR4" t="inlineStr">
         <is>
-          <t>1626.84</t>
+          <t>1673.87</t>
         </is>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
-          <t>1635.25</t>
+          <t>1683.36</t>
         </is>
       </c>
       <c r="BT4" t="inlineStr">
@@ -1689,42 +1689,42 @@
       </c>
       <c r="BU4" t="inlineStr">
         <is>
-          <t>2865.03</t>
+          <t>2981.41</t>
         </is>
       </c>
       <c r="BV4" t="inlineStr">
         <is>
-          <t>2739.01</t>
+          <t>2653.87</t>
         </is>
       </c>
       <c r="BW4" t="inlineStr">
         <is>
-          <t>2262.15</t>
+          <t>2329.14</t>
         </is>
       </c>
       <c r="BX4" t="inlineStr">
         <is>
-          <t>2034.45</t>
+          <t>1946.96</t>
         </is>
       </c>
       <c r="BY4" t="inlineStr">
         <is>
-          <t>1545.81</t>
+          <t>1455.77</t>
         </is>
       </c>
       <c r="BZ4" t="inlineStr">
         <is>
-          <t>1525.33</t>
+          <t>1440.21</t>
         </is>
       </c>
       <c r="CA4" t="inlineStr">
         <is>
-          <t>1674.91</t>
+          <t>1724.35</t>
         </is>
       </c>
       <c r="CB4" t="inlineStr">
         <is>
-          <t>1685.78</t>
+          <t>1734.42</t>
         </is>
       </c>
       <c r="CC4" t="inlineStr">
@@ -1734,42 +1734,42 @@
       </c>
       <c r="CD4" t="inlineStr">
         <is>
-          <t>3625.16</t>
+          <t>3748.61</t>
         </is>
       </c>
       <c r="CE4" t="inlineStr">
         <is>
-          <t>3273.52</t>
+          <t>2908.15</t>
         </is>
       </c>
       <c r="CF4" t="inlineStr">
         <is>
-          <t>2921.92</t>
+          <t>2964.36</t>
         </is>
       </c>
       <c r="CG4" t="inlineStr">
         <is>
-          <t>2469.62</t>
+          <t>2183.91</t>
         </is>
       </c>
       <c r="CH4" t="inlineStr">
         <is>
-          <t>1970.70</t>
+          <t>1744.69</t>
         </is>
       </c>
       <c r="CI4" t="inlineStr">
         <is>
-          <t>1968.92</t>
+          <t>1747.78</t>
         </is>
       </c>
       <c r="CJ4" t="inlineStr">
         <is>
-          <t>2362.77</t>
+          <t>2444.87</t>
         </is>
       </c>
       <c r="CK4" t="inlineStr">
         <is>
-          <t>2376.72</t>
+          <t>2454.71</t>
         </is>
       </c>
       <c r="CL4" t="inlineStr">
@@ -1781,42 +1781,42 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2117.11</t>
+          <t>2252.58</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2010.50</t>
+          <t>2077.88</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>719.94</t>
+          <t>667.88</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1505.53</t>
+          <t>1617.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1174.30</t>
+          <t>1161.90</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1159.90</t>
+          <t>1119.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1314.34</t>
+          <t>1317.02</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1310.83</t>
+          <t>1315.43</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1826,42 +1826,42 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>2837.53</t>
+          <t>2978.93</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2648.97</t>
+          <t>2728.74</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2207.97</t>
+          <t>2350.27</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1962.43</t>
+          <t>2083.35</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1400.24</t>
+          <t>1370.63</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1381.90</t>
+          <t>1353.33</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1605.12</t>
+          <t>1643.02</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1617.79</t>
+          <t>1656.12</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1871,42 +1871,42 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2834.86</t>
+          <t>2974.62</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>2672.48</t>
+          <t>2738.67</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>2178.51</t>
+          <t>2338.28</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1966.72</t>
+          <t>2082.43</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1413.96</t>
+          <t>1388.65</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1394.68</t>
+          <t>1371.67</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>1603.31</t>
+          <t>1650.44</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>1613.98</t>
+          <t>1655.50</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1916,42 +1916,42 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>2829.33</t>
+          <t>2964.28</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2679.44</t>
+          <t>2750.73</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>2171.88</t>
+          <t>2329.02</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>1973.91</t>
+          <t>2067.73</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>1413.39</t>
+          <t>1421.04</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1394.30</t>
+          <t>1396.37</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>1595.96</t>
+          <t>1646.30</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>1605.52</t>
+          <t>1656.65</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1961,42 +1961,42 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>2823.30</t>
+          <t>2946.94</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>2670.72</t>
+          <t>2756.30</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>2172.12</t>
+          <t>2317.04</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>1979.47</t>
+          <t>2066.30</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>1405.18</t>
+          <t>1491.77</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>1383.94</t>
+          <t>1433.40</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>1558.09</t>
+          <t>1656.84</t>
         </is>
       </c>
       <c r="AR5" t="inlineStr">
         <is>
-          <t>1565.85</t>
+          <t>1667.24</t>
         </is>
       </c>
       <c r="AS5" t="inlineStr">
@@ -2006,42 +2006,42 @@
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>2818.98</t>
+          <t>2926.18</t>
         </is>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
-          <t>2665.67</t>
+          <t>2748.68</t>
         </is>
       </c>
       <c r="AV5" t="inlineStr">
         <is>
-          <t>2174.25</t>
+          <t>2308.41</t>
         </is>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>1975.09</t>
+          <t>2081.70</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>1406.79</t>
+          <t>1482.41</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
-          <t>1386.01</t>
+          <t>1472.70</t>
         </is>
       </c>
       <c r="AZ5" t="inlineStr">
         <is>
-          <t>1554.25</t>
+          <t>1641.67</t>
         </is>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
-          <t>1563.81</t>
+          <t>1651.39</t>
         </is>
       </c>
       <c r="BB5" t="inlineStr">
@@ -2051,42 +2051,42 @@
       </c>
       <c r="BC5" t="inlineStr">
         <is>
-          <t>2816.81</t>
+          <t>2910.22</t>
         </is>
       </c>
       <c r="BD5" t="inlineStr">
         <is>
-          <t>2662.65</t>
+          <t>2743.64</t>
         </is>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
-          <t>2170.14</t>
+          <t>2302.29</t>
         </is>
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1968.98</t>
+          <t>2074.40</t>
         </is>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
-          <t>1414.68</t>
+          <t>1477.15</t>
         </is>
       </c>
       <c r="BH5" t="inlineStr">
         <is>
-          <t>1398.54</t>
+          <t>1457.87</t>
         </is>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
-          <t>1556.74</t>
+          <t>1633.62</t>
         </is>
       </c>
       <c r="BJ5" t="inlineStr">
         <is>
-          <t>1562.70</t>
+          <t>1642.43</t>
         </is>
       </c>
       <c r="BK5" t="inlineStr">
@@ -2096,42 +2096,42 @@
       </c>
       <c r="BL5" t="inlineStr">
         <is>
-          <t>2818.71</t>
+          <t>2908.56</t>
         </is>
       </c>
       <c r="BM5" t="inlineStr">
         <is>
-          <t>2664.97</t>
+          <t>2741.13</t>
         </is>
       </c>
       <c r="BN5" t="inlineStr">
         <is>
-          <t>2171.27</t>
+          <t>2297.82</t>
         </is>
       </c>
       <c r="BO5" t="inlineStr">
         <is>
-          <t>1970.10</t>
+          <t>2075.64</t>
         </is>
       </c>
       <c r="BP5" t="inlineStr">
         <is>
-          <t>1432.38</t>
+          <t>1468.26</t>
         </is>
       </c>
       <c r="BQ5" t="inlineStr">
         <is>
-          <t>1412.69</t>
+          <t>1449.35</t>
         </is>
       </c>
       <c r="BR5" t="inlineStr">
         <is>
-          <t>1559.33</t>
+          <t>1598.18</t>
         </is>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
-          <t>1562.63</t>
+          <t>1607.71</t>
         </is>
       </c>
       <c r="BT5" t="inlineStr">
@@ -2141,42 +2141,42 @@
       </c>
       <c r="BU5" t="inlineStr">
         <is>
-          <t>2900.85</t>
+          <t>2989.89</t>
         </is>
       </c>
       <c r="BV5" t="inlineStr">
         <is>
-          <t>2745.79</t>
+          <t>2821.89</t>
         </is>
       </c>
       <c r="BW5" t="inlineStr">
         <is>
-          <t>2198.18</t>
+          <t>2336.18</t>
         </is>
       </c>
       <c r="BX5" t="inlineStr">
         <is>
-          <t>1967.13</t>
+          <t>2100.55</t>
         </is>
       </c>
       <c r="BY5" t="inlineStr">
         <is>
-          <t>1508.86</t>
+          <t>1541.68</t>
         </is>
       </c>
       <c r="BZ5" t="inlineStr">
         <is>
-          <t>1488.96</t>
+          <t>1513.44</t>
         </is>
       </c>
       <c r="CA5" t="inlineStr">
         <is>
-          <t>1611.24</t>
+          <t>1650.64</t>
         </is>
       </c>
       <c r="CB5" t="inlineStr">
         <is>
-          <t>1621.37</t>
+          <t>1660.55</t>
         </is>
       </c>
       <c r="CC5" t="inlineStr">
@@ -2186,42 +2186,42 @@
       </c>
       <c r="CD5" t="inlineStr">
         <is>
-          <t>3614.64</t>
+          <t>3753.35</t>
         </is>
       </c>
       <c r="CE5" t="inlineStr">
         <is>
-          <t>3380.09</t>
+          <t>3374.88</t>
         </is>
       </c>
       <c r="CF5" t="inlineStr">
         <is>
-          <t>2934.25</t>
+          <t>2956.75</t>
         </is>
       </c>
       <c r="CG5" t="inlineStr">
         <is>
-          <t>2518.78</t>
+          <t>2574.46</t>
         </is>
       </c>
       <c r="CH5" t="inlineStr">
         <is>
-          <t>1920.30</t>
+          <t>1942.58</t>
         </is>
       </c>
       <c r="CI5" t="inlineStr">
         <is>
-          <t>1911.56</t>
+          <t>1939.22</t>
         </is>
       </c>
       <c r="CJ5" t="inlineStr">
         <is>
-          <t>2303.77</t>
+          <t>2409.15</t>
         </is>
       </c>
       <c r="CK5" t="inlineStr">
         <is>
-          <t>2313.77</t>
+          <t>2424.27</t>
         </is>
       </c>
       <c r="CL5" t="inlineStr">
@@ -2233,42 +2233,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024.87</t>
+          <t>2192.03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1955.66</t>
+          <t>2080.25</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>671.72</t>
+          <t>479.63</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1521.96</t>
+          <t>1618.80</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1193.51</t>
+          <t>1230.69</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1182.33</t>
+          <t>1219.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1253.83</t>
+          <t>1319.04</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1253.42</t>
+          <t>1323.20</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -2278,42 +2278,42 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>2672.06</t>
+          <t>2850.59</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2601.54</t>
+          <t>2685.14</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>2176.47</t>
+          <t>2295.61</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>1968.97</t>
+          <t>2049.26</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1395.74</t>
+          <t>1488.01</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1378.69</t>
+          <t>1469.07</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1511.87</t>
+          <t>1643.07</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1524.81</t>
+          <t>1660.66</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -2323,42 +2323,42 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2698.94</t>
+          <t>2852.57</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>2596.64</t>
+          <t>2680.34</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>2149.46</t>
+          <t>2259.08</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1971.00</t>
+          <t>2045.32</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1401.20</t>
+          <t>1489.03</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1384.33</t>
+          <t>1470.54</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>1515.73</t>
+          <t>1652.60</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>1526.39</t>
+          <t>1664.94</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -2368,42 +2368,42 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2715.85</t>
+          <t>2852.26</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2590.49</t>
+          <t>2678.60</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>2149.31</t>
+          <t>2242.95</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>1974.33</t>
+          <t>2032.10</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>1403.68</t>
+          <t>1394.90</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>1386.91</t>
+          <t>1377.36</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>1517.93</t>
+          <t>1654.38</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1527.88</t>
+          <t>1665.04</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2413,42 +2413,42 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>2714.14</t>
+          <t>2850.91</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>2579.30</t>
+          <t>2677.59</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>2150.31</t>
+          <t>2231.85</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>1982.10</t>
+          <t>1974.01</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>1401.91</t>
+          <t>1392.31</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>1376.77</t>
+          <t>1373.96</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>1504.82</t>
+          <t>1549.93</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>1514.85</t>
+          <t>1558.66</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
@@ -2458,42 +2458,42 @@
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>2706.90</t>
+          <t>2849.33</t>
         </is>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>2573.58</t>
+          <t>2675.71</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>2147.90</t>
+          <t>2227.07</t>
         </is>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>1978.73</t>
+          <t>1976.12</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>1403.36</t>
+          <t>1391.08</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
-          <t>1384.13</t>
+          <t>1372.73</t>
         </is>
       </c>
       <c r="AZ6" t="inlineStr">
         <is>
-          <t>1505.88</t>
+          <t>1548.09</t>
         </is>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
-          <t>1515.37</t>
+          <t>1556.64</t>
         </is>
       </c>
       <c r="BB6" t="inlineStr">
@@ -2503,42 +2503,42 @@
       </c>
       <c r="BC6" t="inlineStr">
         <is>
-          <t>2700.07</t>
+          <t>2848.50</t>
         </is>
       </c>
       <c r="BD6" t="inlineStr">
         <is>
-          <t>2572.64</t>
+          <t>2674.50</t>
         </is>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
-          <t>2151.10</t>
+          <t>2226.39</t>
         </is>
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1973.77</t>
+          <t>1974.58</t>
         </is>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
-          <t>1399.64</t>
+          <t>1390.44</t>
         </is>
       </c>
       <c r="BH6" t="inlineStr">
         <is>
-          <t>1387.44</t>
+          <t>1372.13</t>
         </is>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
-          <t>1517.59</t>
+          <t>1548.42</t>
         </is>
       </c>
       <c r="BJ6" t="inlineStr">
         <is>
-          <t>1523.79</t>
+          <t>1555.83</t>
         </is>
       </c>
       <c r="BK6" t="inlineStr">
@@ -2548,42 +2548,42 @@
       </c>
       <c r="BL6" t="inlineStr">
         <is>
-          <t>2702.01</t>
+          <t>2853.31</t>
         </is>
       </c>
       <c r="BM6" t="inlineStr">
         <is>
-          <t>2573.74</t>
+          <t>2679.22</t>
         </is>
       </c>
       <c r="BN6" t="inlineStr">
         <is>
-          <t>2163.46</t>
+          <t>2230.27</t>
         </is>
       </c>
       <c r="BO6" t="inlineStr">
         <is>
-          <t>1973.92</t>
+          <t>1978.52</t>
         </is>
       </c>
       <c r="BP6" t="inlineStr">
         <is>
-          <t>1404.95</t>
+          <t>1384.29</t>
         </is>
       </c>
       <c r="BQ6" t="inlineStr">
         <is>
-          <t>1390.02</t>
+          <t>1366.15</t>
         </is>
       </c>
       <c r="BR6" t="inlineStr">
         <is>
-          <t>1529.79</t>
+          <t>1552.55</t>
         </is>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
-          <t>1538.57</t>
+          <t>1559.77</t>
         </is>
       </c>
       <c r="BT6" t="inlineStr">
@@ -2593,42 +2593,42 @@
       </c>
       <c r="BU6" t="inlineStr">
         <is>
-          <t>2771.89</t>
+          <t>2948.22</t>
         </is>
       </c>
       <c r="BV6" t="inlineStr">
         <is>
-          <t>2649.89</t>
+          <t>2769.06</t>
         </is>
       </c>
       <c r="BW6" t="inlineStr">
         <is>
-          <t>2201.21</t>
+          <t>2265.10</t>
         </is>
       </c>
       <c r="BX6" t="inlineStr">
         <is>
-          <t>1996.92</t>
+          <t>2006.55</t>
         </is>
       </c>
       <c r="BY6" t="inlineStr">
         <is>
-          <t>1469.88</t>
+          <t>1446.15</t>
         </is>
       </c>
       <c r="BZ6" t="inlineStr">
         <is>
-          <t>1456.22</t>
+          <t>1427.56</t>
         </is>
       </c>
       <c r="CA6" t="inlineStr">
         <is>
-          <t>1585.27</t>
+          <t>1597.06</t>
         </is>
       </c>
       <c r="CB6" t="inlineStr">
         <is>
-          <t>1601.64</t>
+          <t>1602.75</t>
         </is>
       </c>
       <c r="CC6" t="inlineStr">
@@ -2638,42 +2638,42 @@
       </c>
       <c r="CD6" t="inlineStr">
         <is>
-          <t>3456.84</t>
+          <t>3688.18</t>
         </is>
       </c>
       <c r="CE6" t="inlineStr">
         <is>
-          <t>3282.59</t>
+          <t>3437.36</t>
         </is>
       </c>
       <c r="CF6" t="inlineStr">
         <is>
-          <t>2878.02</t>
+          <t>2905.91</t>
         </is>
       </c>
       <c r="CG6" t="inlineStr">
         <is>
-          <t>2528.47</t>
+          <t>2536.24</t>
         </is>
       </c>
       <c r="CH6" t="inlineStr">
         <is>
-          <t>1898.77</t>
+          <t>1854.21</t>
         </is>
       </c>
       <c r="CI6" t="inlineStr">
         <is>
-          <t>1902.66</t>
+          <t>1854.45</t>
         </is>
       </c>
       <c r="CJ6" t="inlineStr">
         <is>
-          <t>2263.78</t>
+          <t>2304.31</t>
         </is>
       </c>
       <c r="CK6" t="inlineStr">
         <is>
-          <t>2278.20</t>
+          <t>2315.29</t>
         </is>
       </c>
       <c r="CL6" t="inlineStr">
@@ -2685,42 +2685,42 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2048.55</t>
+          <t>1867.17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1992.71</t>
+          <t>1773.58</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>884.35</t>
+          <t>467.54</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1549.58</t>
+          <t>1350.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1169.34</t>
+          <t>982.34</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1158.32</t>
+          <t>989.68</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1199.71</t>
+          <t>1062.12</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>1200.65</t>
+          <t>1067.28</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -2730,42 +2730,42 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>2702.03</t>
+          <t>2514.82</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2588.37</t>
+          <t>2399.34</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>2193.02</t>
+          <t>2025.98</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>1994.13</t>
+          <t>1802.80</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1391.53</t>
+          <t>1218.66</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1373.03</t>
+          <t>1193.63</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1482.60</t>
+          <t>1346.52</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1496.93</t>
+          <t>1360.97</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2775,42 +2775,42 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2694.26</t>
+          <t>2516.70</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>2584.08</t>
+          <t>2408.03</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>2175.42</t>
+          <t>2003.27</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>1993.38</t>
+          <t>1818.03</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1395.34</t>
+          <t>1226.70</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1377.74</t>
+          <t>1207.22</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>1487.42</t>
+          <t>1355.31</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>1497.74</t>
+          <t>1369.50</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -2820,42 +2820,42 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2691.54</t>
+          <t>2519.14</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2581.44</t>
+          <t>2411.78</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>2170.35</t>
+          <t>1998.60</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>1989.35</t>
+          <t>1821.79</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>1399.86</t>
+          <t>1224.14</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>1381.23</t>
+          <t>1214.59</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>1490.90</t>
+          <t>1362.20</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1500.69</t>
+          <t>1374.90</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2865,42 +2865,42 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>2689.65</t>
+          <t>2520.71</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>2579.95</t>
+          <t>2413.94</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>2172.99</t>
+          <t>1998.91</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>1995.61</t>
+          <t>1823.26</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>1403.29</t>
+          <t>1227.20</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>1384.64</t>
+          <t>1214.86</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>1493.63</t>
+          <t>1367.00</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>1503.29</t>
+          <t>1379.12</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>2688.14</t>
+          <t>2521.85</t>
         </is>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>2578.70</t>
+          <t>2415.42</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>2170.93</t>
+          <t>2002.73</t>
         </is>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>1993.22</t>
+          <t>1828.10</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>1406.27</t>
+          <t>1229.38</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>1387.63</t>
+          <t>1217.02</t>
         </is>
       </c>
       <c r="AZ7" t="inlineStr">
         <is>
-          <t>1496.06</t>
+          <t>1370.79</t>
         </is>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
-          <t>1505.69</t>
+          <t>1382.71</t>
         </is>
       </c>
       <c r="BB7" t="inlineStr">
@@ -2955,42 +2955,42 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>2687.65</t>
+          <t>2523.37</t>
         </is>
       </c>
       <c r="BD7" t="inlineStr">
         <is>
-          <t>2578.43</t>
+          <t>2417.32</t>
         </is>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
-          <t>2170.11</t>
+          <t>2004.73</t>
         </is>
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1992.04</t>
+          <t>1829.54</t>
         </is>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
-          <t>1409.82</t>
+          <t>1231.93</t>
         </is>
       </c>
       <c r="BH7" t="inlineStr">
         <is>
-          <t>1391.23</t>
+          <t>1219.40</t>
         </is>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
-          <t>1500.99</t>
+          <t>1374.79</t>
         </is>
       </c>
       <c r="BJ7" t="inlineStr">
         <is>
-          <t>1508.74</t>
+          <t>1386.56</t>
         </is>
       </c>
       <c r="BK7" t="inlineStr">
@@ -3000,42 +3000,42 @@
       </c>
       <c r="BL7" t="inlineStr">
         <is>
-          <t>2687.30</t>
+          <t>2529.79</t>
         </is>
       </c>
       <c r="BM7" t="inlineStr">
         <is>
-          <t>2583.93</t>
+          <t>2424.16</t>
         </is>
       </c>
       <c r="BN7" t="inlineStr">
         <is>
-          <t>2168.01</t>
+          <t>2011.16</t>
         </is>
       </c>
       <c r="BO7" t="inlineStr">
         <is>
-          <t>1996.11</t>
+          <t>1835.62</t>
         </is>
       </c>
       <c r="BP7" t="inlineStr">
         <is>
-          <t>1419.39</t>
+          <t>1239.58</t>
         </is>
       </c>
       <c r="BQ7" t="inlineStr">
         <is>
-          <t>1400.87</t>
+          <t>1226.76</t>
         </is>
       </c>
       <c r="BR7" t="inlineStr">
         <is>
-          <t>1508.65</t>
+          <t>1382.50</t>
         </is>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
-          <t>1516.57</t>
+          <t>1394.40</t>
         </is>
       </c>
       <c r="BT7" t="inlineStr">
@@ -3045,42 +3045,42 @@
       </c>
       <c r="BU7" t="inlineStr">
         <is>
-          <t>2765.50</t>
+          <t>2614.81</t>
         </is>
       </c>
       <c r="BV7" t="inlineStr">
         <is>
-          <t>2664.80</t>
+          <t>2508.09</t>
         </is>
       </c>
       <c r="BW7" t="inlineStr">
         <is>
-          <t>2198.85</t>
+          <t>2047.17</t>
         </is>
       </c>
       <c r="BX7" t="inlineStr">
         <is>
-          <t>2020.20</t>
+          <t>1866.82</t>
         </is>
       </c>
       <c r="BY7" t="inlineStr">
         <is>
-          <t>1493.30</t>
+          <t>1310.86</t>
         </is>
       </c>
       <c r="BZ7" t="inlineStr">
         <is>
-          <t>1474.49</t>
+          <t>1297.82</t>
         </is>
       </c>
       <c r="CA7" t="inlineStr">
         <is>
-          <t>1559.48</t>
+          <t>1432.61</t>
         </is>
       </c>
       <c r="CB7" t="inlineStr">
         <is>
-          <t>1571.56</t>
+          <t>1445.09</t>
         </is>
       </c>
       <c r="CC7" t="inlineStr">
@@ -3090,42 +3090,42 @@
       </c>
       <c r="CD7" t="inlineStr">
         <is>
-          <t>3346.02</t>
+          <t>3172.47</t>
         </is>
       </c>
       <c r="CE7" t="inlineStr">
         <is>
-          <t>3204.20</t>
+          <t>3030.81</t>
         </is>
       </c>
       <c r="CF7" t="inlineStr">
         <is>
-          <t>2847.82</t>
+          <t>2560.40</t>
         </is>
       </c>
       <c r="CG7" t="inlineStr">
         <is>
-          <t>2523.20</t>
+          <t>2328.26</t>
         </is>
       </c>
       <c r="CH7" t="inlineStr">
         <is>
-          <t>1879.18</t>
+          <t>1703.47</t>
         </is>
       </c>
       <c r="CI7" t="inlineStr">
         <is>
-          <t>1882.74</t>
+          <t>1708.42</t>
         </is>
       </c>
       <c r="CJ7" t="inlineStr">
         <is>
-          <t>2195.12</t>
+          <t>2053.47</t>
         </is>
       </c>
       <c r="CK7" t="inlineStr">
         <is>
-          <t>2207.76</t>
+          <t>2062.50</t>
         </is>
       </c>
       <c r="CL7" t="inlineStr">
@@ -3137,42 +3137,42 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1989.54</t>
+          <t>1725.32</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1938.50</t>
+          <t>1670.00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1060.47</t>
+          <t>698.82</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1512.56</t>
+          <t>1288.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1167.62</t>
+          <t>944.28</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1164.98</t>
+          <t>939.16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1188.50</t>
+          <t>983.65</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1194.30</t>
+          <t>995.24</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -3182,42 +3182,42 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2577.58</t>
+          <t>2335.40</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2499.73</t>
+          <t>2244.75</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>2078.82</t>
+          <t>1899.12</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>1914.28</t>
+          <t>1690.51</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1375.20</t>
+          <t>1154.42</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1364.36</t>
+          <t>1142.68</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1452.37</t>
+          <t>1247.83</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1470.93</t>
+          <t>1270.24</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -3227,42 +3227,42 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2566.86</t>
+          <t>2327.05</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>2495.93</t>
+          <t>2242.58</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>2044.16</t>
+          <t>1840.48</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1905.36</t>
+          <t>1686.86</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1375.30</t>
+          <t>1158.45</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1365.65</t>
+          <t>1147.26</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>1451.89</t>
+          <t>1247.16</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>1463.62</t>
+          <t>1261.45</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -3272,42 +3272,42 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2563.35</t>
+          <t>2324.12</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2494.10</t>
+          <t>2240.91</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>2036.32</t>
+          <t>1829.95</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1900.08</t>
+          <t>1685.82</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>1376.33</t>
+          <t>1160.51</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>1364.29</t>
+          <t>1149.55</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>1452.77</t>
+          <t>1249.15</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1463.38</t>
+          <t>1261.50</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -3317,42 +3317,42 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>2561.33</t>
+          <t>2322.14</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>2492.85</t>
+          <t>2239.44</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>2038.46</t>
+          <t>1826.92</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>1909.62</t>
+          <t>1682.28</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>1377.83</t>
+          <t>1161.73</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>1368.62</t>
+          <t>1150.75</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>1454.15</t>
+          <t>1250.69</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>1464.50</t>
+          <t>1262.46</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
@@ -3362,42 +3362,42 @@
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>2559.94</t>
+          <t>2320.59</t>
         </is>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>2491.65</t>
+          <t>2238.16</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>2036.71</t>
+          <t>1828.59</t>
         </is>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>1908.43</t>
+          <t>1682.65</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>1379.56</t>
+          <t>1162.19</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>1370.61</t>
+          <t>1151.38</t>
         </is>
       </c>
       <c r="AZ8" t="inlineStr">
         <is>
-          <t>1455.77</t>
+          <t>1251.99</t>
         </is>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
-          <t>1466.20</t>
+          <t>1263.51</t>
         </is>
       </c>
       <c r="BB8" t="inlineStr">
@@ -3407,42 +3407,42 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>2559.57</t>
+          <t>2320.02</t>
         </is>
       </c>
       <c r="BD8" t="inlineStr">
         <is>
-          <t>2495.97</t>
+          <t>2237.71</t>
         </is>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
-          <t>2036.29</t>
+          <t>1828.68</t>
         </is>
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1908.57</t>
+          <t>1678.66</t>
         </is>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
-          <t>1381.82</t>
+          <t>1160.71</t>
         </is>
       </c>
       <c r="BH8" t="inlineStr">
         <is>
-          <t>1373.08</t>
+          <t>1151.92</t>
         </is>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
-          <t>1460.09</t>
+          <t>1250.18</t>
         </is>
       </c>
       <c r="BJ8" t="inlineStr">
         <is>
-          <t>1468.80</t>
+          <t>1261.62</t>
         </is>
       </c>
       <c r="BK8" t="inlineStr">
@@ -3452,42 +3452,42 @@
       </c>
       <c r="BL8" t="inlineStr">
         <is>
-          <t>2564.13</t>
+          <t>2324.34</t>
         </is>
       </c>
       <c r="BM8" t="inlineStr">
         <is>
-          <t>2500.92</t>
+          <t>2242.10</t>
         </is>
       </c>
       <c r="BN8" t="inlineStr">
         <is>
-          <t>2040.25</t>
+          <t>1833.03</t>
         </is>
       </c>
       <c r="BO8" t="inlineStr">
         <is>
-          <t>1911.67</t>
+          <t>1682.59</t>
         </is>
       </c>
       <c r="BP8" t="inlineStr">
         <is>
-          <t>1388.55</t>
+          <t>1164.14</t>
         </is>
       </c>
       <c r="BQ8" t="inlineStr">
         <is>
-          <t>1379.85</t>
+          <t>1155.84</t>
         </is>
       </c>
       <c r="BR8" t="inlineStr">
         <is>
-          <t>1466.78</t>
+          <t>1253.98</t>
         </is>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
-          <t>1475.48</t>
+          <t>1265.34</t>
         </is>
       </c>
       <c r="BT8" t="inlineStr">
@@ -3497,42 +3497,42 @@
       </c>
       <c r="BU8" t="inlineStr">
         <is>
-          <t>2639.06</t>
+          <t>2402.69</t>
         </is>
       </c>
       <c r="BV8" t="inlineStr">
         <is>
-          <t>2575.30</t>
+          <t>2319.58</t>
         </is>
       </c>
       <c r="BW8" t="inlineStr">
         <is>
-          <t>2067.15</t>
+          <t>1866.75</t>
         </is>
       </c>
       <c r="BX8" t="inlineStr">
         <is>
-          <t>1930.39</t>
+          <t>1711.12</t>
         </is>
       </c>
       <c r="BY8" t="inlineStr">
         <is>
-          <t>1453.41</t>
+          <t>1222.65</t>
         </is>
       </c>
       <c r="BZ8" t="inlineStr">
         <is>
-          <t>1441.09</t>
+          <t>1216.05</t>
         </is>
       </c>
       <c r="CA8" t="inlineStr">
         <is>
-          <t>1512.32</t>
+          <t>1293.77</t>
         </is>
       </c>
       <c r="CB8" t="inlineStr">
         <is>
-          <t>1522.94</t>
+          <t>1304.94</t>
         </is>
       </c>
       <c r="CC8" t="inlineStr">
@@ -3542,42 +3542,42 @@
       </c>
       <c r="CD8" t="inlineStr">
         <is>
-          <t>3130.45</t>
+          <t>2823.24</t>
         </is>
       </c>
       <c r="CE8" t="inlineStr">
         <is>
-          <t>3094.43</t>
+          <t>2850.70</t>
         </is>
       </c>
       <c r="CF8" t="inlineStr">
         <is>
-          <t>2591.39</t>
+          <t>2377.59</t>
         </is>
       </c>
       <c r="CG8" t="inlineStr">
         <is>
-          <t>2361.50</t>
+          <t>2170.94</t>
         </is>
       </c>
       <c r="CH8" t="inlineStr">
         <is>
-          <t>1795.18</t>
+          <t>1562.75</t>
         </is>
       </c>
       <c r="CI8" t="inlineStr">
         <is>
-          <t>1796.88</t>
+          <t>1571.40</t>
         </is>
       </c>
       <c r="CJ8" t="inlineStr">
         <is>
-          <t>2072.48</t>
+          <t>1856.01</t>
         </is>
       </c>
       <c r="CK8" t="inlineStr">
         <is>
-          <t>2082.07</t>
+          <t>1866.12</t>
         </is>
       </c>
       <c r="CL8" t="inlineStr">
@@ -3589,42 +3589,42 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1929.88</t>
+          <t>1570.37</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1845.53</t>
+          <t>1485.34</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1429.22</t>
+          <t>722.99</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1459.13</t>
+          <t>1144.24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1116.40</t>
+          <t>820.34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1110.09</t>
+          <t>819.21</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1143.35</t>
+          <t>904.94</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1149.66</t>
+          <t>919.76</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -3634,42 +3634,42 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>2508.80</t>
+          <t>2108.43</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2412.65</t>
+          <t>2014.48</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2043.50</t>
+          <t>1783.01</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>1873.19</t>
+          <t>1543.50</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1316.53</t>
+          <t>1015.03</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1304.16</t>
+          <t>1010.25</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1408.42</t>
+          <t>1171.85</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1424.67</t>
+          <t>1194.53</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -3679,42 +3679,42 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2499.31</t>
+          <t>2087.38</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>2411.41</t>
+          <t>1999.75</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>2008.57</t>
+          <t>1695.84</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1867.94</t>
+          <t>1537.42</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>1318.57</t>
+          <t>1013.16</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>1306.28</t>
+          <t>1008.57</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>1408.96</t>
+          <t>1168.45</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>1420.22</t>
+          <t>1185.82</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -3724,42 +3724,42 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2495.13</t>
+          <t>2076.81</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2414.22</t>
+          <t>1990.50</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>2000.64</t>
+          <t>1680.07</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1863.06</t>
+          <t>1531.57</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>1320.67</t>
+          <t>1012.09</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>1311.47</t>
+          <t>1007.59</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>1410.97</t>
+          <t>1162.67</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>1421.24</t>
+          <t>1182.75</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -3769,42 +3769,42 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>2493.78</t>
+          <t>2069.05</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>2416.08</t>
+          <t>1983.28</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>2004.14</t>
+          <t>1673.88</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>1869.50</t>
+          <t>1527.56</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>1325.53</t>
+          <t>1011.45</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>1316.81</t>
+          <t>1007.05</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>1413.19</t>
+          <t>1154.30</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>1423.23</t>
+          <t>1182.76</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
@@ -3814,42 +3814,42 @@
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>2494.42</t>
+          <t>2062.74</t>
         </is>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>2418.69</t>
+          <t>1977.30</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>2002.58</t>
+          <t>1673.31</t>
         </is>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>1868.36</t>
+          <t>1528.36</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>1330.84</t>
+          <t>1010.90</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>1319.33</t>
+          <t>1006.52</t>
         </is>
       </c>
       <c r="AZ9" t="inlineStr">
         <is>
-          <t>1415.39</t>
+          <t>1154.72</t>
         </is>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
-          <t>1425.42</t>
+          <t>1183.32</t>
         </is>
       </c>
       <c r="BB9" t="inlineStr">
@@ -3859,42 +3859,42 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>2495.71</t>
+          <t>2057.90</t>
         </is>
       </c>
       <c r="BD9" t="inlineStr">
         <is>
-          <t>2426.91</t>
+          <t>1972.72</t>
         </is>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
-          <t>2005.51</t>
+          <t>1671.18</t>
         </is>
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1870.74</t>
+          <t>1525.72</t>
         </is>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
-          <t>1334.04</t>
+          <t>1010.54</t>
         </is>
       </c>
       <c r="BH9" t="inlineStr">
         <is>
-          <t>1322.39</t>
+          <t>1005.82</t>
         </is>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
-          <t>1420.02</t>
+          <t>1144.26</t>
         </is>
       </c>
       <c r="BJ9" t="inlineStr">
         <is>
-          <t>1428.30</t>
+          <t>1178.84</t>
         </is>
       </c>
       <c r="BK9" t="inlineStr">
@@ -3904,42 +3904,42 @@
       </c>
       <c r="BL9" t="inlineStr">
         <is>
-          <t>2505.95</t>
+          <t>2058.02</t>
         </is>
       </c>
       <c r="BM9" t="inlineStr">
         <is>
-          <t>2438.25</t>
+          <t>1973.14</t>
         </is>
       </c>
       <c r="BN9" t="inlineStr">
         <is>
-          <t>2010.12</t>
+          <t>1672.44</t>
         </is>
       </c>
       <c r="BO9" t="inlineStr">
         <is>
-          <t>1877.69</t>
+          <t>1525.84</t>
         </is>
       </c>
       <c r="BP9" t="inlineStr">
         <is>
-          <t>1341.66</t>
+          <t>1013.67</t>
         </is>
       </c>
       <c r="BQ9" t="inlineStr">
         <is>
-          <t>1330.09</t>
+          <t>1007.49</t>
         </is>
       </c>
       <c r="BR9" t="inlineStr">
         <is>
-          <t>1427.23</t>
+          <t>1139.76</t>
         </is>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
-          <t>1435.46</t>
+          <t>1172.24</t>
         </is>
       </c>
       <c r="BT9" t="inlineStr">
@@ -3949,42 +3949,42 @@
       </c>
       <c r="BU9" t="inlineStr">
         <is>
-          <t>2602.83</t>
+          <t>2130.15</t>
         </is>
       </c>
       <c r="BV9" t="inlineStr">
         <is>
-          <t>2533.65</t>
+          <t>2044.19</t>
         </is>
       </c>
       <c r="BW9" t="inlineStr">
         <is>
-          <t>2041.78</t>
+          <t>1699.99</t>
         </is>
       </c>
       <c r="BX9" t="inlineStr">
         <is>
-          <t>1906.59</t>
+          <t>1546.46</t>
         </is>
       </c>
       <c r="BY9" t="inlineStr">
         <is>
-          <t>1406.54</t>
+          <t>1067.77</t>
         </is>
       </c>
       <c r="BZ9" t="inlineStr">
         <is>
-          <t>1394.40</t>
+          <t>1061.92</t>
         </is>
       </c>
       <c r="CA9" t="inlineStr">
         <is>
-          <t>1472.89</t>
+          <t>1163.03</t>
         </is>
       </c>
       <c r="CB9" t="inlineStr">
         <is>
-          <t>1483.17</t>
+          <t>1181.49</t>
         </is>
       </c>
       <c r="CC9" t="inlineStr">
@@ -3994,42 +3994,42 @@
       </c>
       <c r="CD9" t="inlineStr">
         <is>
-          <t>3068.88</t>
+          <t>2589.64</t>
         </is>
       </c>
       <c r="CE9" t="inlineStr">
         <is>
-          <t>3084.35</t>
+          <t>2558.73</t>
         </is>
       </c>
       <c r="CF9" t="inlineStr">
         <is>
-          <t>2594.36</t>
+          <t>2171.21</t>
         </is>
       </c>
       <c r="CG9" t="inlineStr">
         <is>
-          <t>2349.68</t>
+          <t>1972.86</t>
         </is>
       </c>
       <c r="CH9" t="inlineStr">
         <is>
-          <t>1746.84</t>
+          <t>1410.56</t>
         </is>
       </c>
       <c r="CI9" t="inlineStr">
         <is>
-          <t>1757.07</t>
+          <t>1423.59</t>
         </is>
       </c>
       <c r="CJ9" t="inlineStr">
         <is>
-          <t>2027.75</t>
+          <t>1703.74</t>
         </is>
       </c>
       <c r="CK9" t="inlineStr">
         <is>
-          <t>2037.53</t>
+          <t>1718.17</t>
         </is>
       </c>
       <c r="CL9" t="inlineStr">
@@ -4041,42 +4041,42 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1909.60</t>
+          <t>1571.74</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1847.92</t>
+          <t>1474.11</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1577.59</t>
+          <t>978.57</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1468.22</t>
+          <t>1196.73</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1114.22</t>
+          <t>865.37</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1110.26</t>
+          <t>861.23</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1151.69</t>
+          <t>926.49</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>1156.85</t>
+          <t>951.77</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -4086,42 +4086,42 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>2506.76</t>
+          <t>2162.75</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2403.54</t>
+          <t>2041.70</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>2062.90</t>
+          <t>1797.97</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>1884.29</t>
+          <t>1509.38</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>1325.28</t>
+          <t>1053.92</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1316.47</t>
+          <t>1046.51</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1417.95</t>
+          <t>1159.18</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>1441.24</t>
+          <t>1179.03</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -4131,42 +4131,42 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2489.46</t>
+          <t>2139.74</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>2393.79</t>
+          <t>2026.73</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>2017.91</t>
+          <t>1675.52</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>1878.06</t>
+          <t>1498.71</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>1325.75</t>
+          <t>1048.01</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>1318.06</t>
+          <t>1040.65</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>1415.38</t>
+          <t>1146.49</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>1435.04</t>
+          <t>1166.27</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -4176,42 +4176,42 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2483.51</t>
+          <t>2129.04</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2394.70</t>
+          <t>2017.87</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>2006.73</t>
+          <t>1638.89</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>1873.31</t>
+          <t>1490.28</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>1327.20</t>
+          <t>1036.17</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>1320.97</t>
+          <t>1037.17</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>1417.88</t>
+          <t>1142.90</t>
         </is>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>1434.41</t>
+          <t>1160.36</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -4221,42 +4221,42 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>2483.54</t>
+          <t>2121.48</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>2399.28</t>
+          <t>2011.10</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>2010.99</t>
+          <t>1630.69</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>1880.40</t>
+          <t>1484.54</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>1331.70</t>
+          <t>1033.94</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>1323.25</t>
+          <t>1034.62</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>1422.70</t>
+          <t>1141.11</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>1436.19</t>
+          <t>1158.45</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
@@ -4266,42 +4266,42 @@
       </c>
       <c r="AT10" t="inlineStr">
         <is>
-          <t>2487.88</t>
+          <t>2115.47</t>
         </is>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>2403.80</t>
+          <t>2005.57</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>2016.50</t>
+          <t>1629.09</t>
         </is>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>1885.17</t>
+          <t>1484.08</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>1335.81</t>
+          <t>1032.12</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
-          <t>1325.99</t>
+          <t>1032.41</t>
         </is>
       </c>
       <c r="AZ10" t="inlineStr">
         <is>
-          <t>1425.73</t>
+          <t>1139.98</t>
         </is>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
-          <t>1439.05</t>
+          <t>1157.48</t>
         </is>
       </c>
       <c r="BB10" t="inlineStr">
@@ -4311,42 +4311,42 @@
       </c>
       <c r="BC10" t="inlineStr">
         <is>
-          <t>2492.74</t>
+          <t>2110.94</t>
         </is>
       </c>
       <c r="BD10" t="inlineStr">
         <is>
-          <t>2408.74</t>
+          <t>2001.44</t>
         </is>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
-          <t>2019.92</t>
+          <t>1626.17</t>
         </is>
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1888.22</t>
+          <t>1480.31</t>
         </is>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
-          <t>1339.02</t>
+          <t>1030.85</t>
         </is>
       </c>
       <c r="BH10" t="inlineStr">
         <is>
-          <t>1329.35</t>
+          <t>1030.29</t>
         </is>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
-          <t>1431.18</t>
+          <t>1139.55</t>
         </is>
       </c>
       <c r="BJ10" t="inlineStr">
         <is>
-          <t>1442.81</t>
+          <t>1156.94</t>
         </is>
       </c>
       <c r="BK10" t="inlineStr">
@@ -4356,42 +4356,42 @@
       </c>
       <c r="BL10" t="inlineStr">
         <is>
-          <t>2502.51</t>
+          <t>2111.30</t>
         </is>
       </c>
       <c r="BM10" t="inlineStr">
         <is>
-          <t>2418.48</t>
+          <t>2002.22</t>
         </is>
       </c>
       <c r="BN10" t="inlineStr">
         <is>
-          <t>2025.25</t>
+          <t>1625.55</t>
         </is>
       </c>
       <c r="BO10" t="inlineStr">
         <is>
-          <t>1893.00</t>
+          <t>1479.54</t>
         </is>
       </c>
       <c r="BP10" t="inlineStr">
         <is>
-          <t>1346.68</t>
+          <t>1033.50</t>
         </is>
       </c>
       <c r="BQ10" t="inlineStr">
         <is>
-          <t>1337.04</t>
+          <t>1030.66</t>
         </is>
       </c>
       <c r="BR10" t="inlineStr">
         <is>
-          <t>1438.34</t>
+          <t>1142.14</t>
         </is>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
-          <t>1449.88</t>
+          <t>1152.04</t>
         </is>
       </c>
       <c r="BT10" t="inlineStr">
@@ -4401,42 +4401,42 @@
       </c>
       <c r="BU10" t="inlineStr">
         <is>
-          <t>2591.61</t>
+          <t>2183.44</t>
         </is>
       </c>
       <c r="BV10" t="inlineStr">
         <is>
-          <t>2504.87</t>
+          <t>2072.40</t>
         </is>
       </c>
       <c r="BW10" t="inlineStr">
         <is>
-          <t>2049.93</t>
+          <t>1648.66</t>
         </is>
       </c>
       <c r="BX10" t="inlineStr">
         <is>
-          <t>1911.74</t>
+          <t>1495.21</t>
         </is>
       </c>
       <c r="BY10" t="inlineStr">
         <is>
-          <t>1410.16</t>
+          <t>1077.28</t>
         </is>
       </c>
       <c r="BZ10" t="inlineStr">
         <is>
-          <t>1399.77</t>
+          <t>1073.90</t>
         </is>
       </c>
       <c r="CA10" t="inlineStr">
         <is>
-          <t>1480.34</t>
+          <t>1176.25</t>
         </is>
       </c>
       <c r="CB10" t="inlineStr">
         <is>
-          <t>1493.33</t>
+          <t>1186.15</t>
         </is>
       </c>
       <c r="CC10" t="inlineStr">
@@ -4446,42 +4446,42 @@
       </c>
       <c r="CD10" t="inlineStr">
         <is>
-          <t>2967.76</t>
+          <t>2631.96</t>
         </is>
       </c>
       <c r="CE10" t="inlineStr">
         <is>
-          <t>3064.80</t>
+          <t>2588.30</t>
         </is>
       </c>
       <c r="CF10" t="inlineStr">
         <is>
-          <t>2621.57</t>
+          <t>2171.54</t>
         </is>
       </c>
       <c r="CG10" t="inlineStr">
         <is>
-          <t>2350.39</t>
+          <t>1928.05</t>
         </is>
       </c>
       <c r="CH10" t="inlineStr">
         <is>
-          <t>1723.99</t>
+          <t>1370.87</t>
         </is>
       </c>
       <c r="CI10" t="inlineStr">
         <is>
-          <t>1731.38</t>
+          <t>1382.96</t>
         </is>
       </c>
       <c r="CJ10" t="inlineStr">
         <is>
-          <t>2028.12</t>
+          <t>1689.68</t>
         </is>
       </c>
       <c r="CK10" t="inlineStr">
         <is>
-          <t>2042.53</t>
+          <t>1704.48</t>
         </is>
       </c>
       <c r="CL10" t="inlineStr">
@@ -4493,42 +4493,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2067.41</t>
+          <t>1619.97</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1995.01</t>
+          <t>1474.03</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1493.42</t>
+          <t>1054.20</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1540.48</t>
+          <t>1186.56</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1160.61</t>
+          <t>870.96</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1153.84</t>
+          <t>868.36</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1253.96</t>
+          <t>953.25</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1259.26</t>
+          <t>968.11</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -4538,42 +4538,42 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2690.62</t>
+          <t>2217.66</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2581.48</t>
+          <t>2030.64</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>2195.93</t>
+          <t>1795.08</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>1962.73</t>
+          <t>1504.16</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1374.87</t>
+          <t>1060.72</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1358.37</t>
+          <t>1051.36</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>1530.11</t>
+          <t>1205.98</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1547.74</t>
+          <t>1227.07</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -4583,42 +4583,42 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2679.41</t>
+          <t>2194.71</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>2577.35</t>
+          <t>2018.00</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>2158.53</t>
+          <t>1716.44</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1958.40</t>
+          <t>1484.69</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1378.78</t>
+          <t>1059.03</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>1361.79</t>
+          <t>1049.51</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>1527.50</t>
+          <t>1201.04</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>1540.41</t>
+          <t>1217.18</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -4628,42 +4628,42 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2677.45</t>
+          <t>2184.82</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2575.90</t>
+          <t>2011.36</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>2151.28</t>
+          <t>1699.21</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>1953.85</t>
+          <t>1480.51</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>1383.99</t>
+          <t>1058.38</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>1364.07</t>
+          <t>1048.73</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>1528.22</t>
+          <t>1199.96</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>1540.79</t>
+          <t>1214.11</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -4673,42 +4673,42 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>2677.69</t>
+          <t>2178.14</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>2576.11</t>
+          <t>2006.66</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2153.05</t>
+          <t>1692.07</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>1961.35</t>
+          <t>1478.20</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>1386.36</t>
+          <t>1058.28</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>1366.49</t>
+          <t>1048.59</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>1530.38</t>
+          <t>1200.32</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>1542.85</t>
+          <t>1213.72</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
@@ -4718,42 +4718,42 @@
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>2678.37</t>
+          <t>2172.89</t>
         </is>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
-          <t>2576.50</t>
+          <t>2002.93</t>
         </is>
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>2152.84</t>
+          <t>1690.73</t>
         </is>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>1959.24</t>
+          <t>1480.72</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>1388.68</t>
+          <t>1058.40</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
-          <t>1368.92</t>
+          <t>1048.68</t>
         </is>
       </c>
       <c r="AZ11" t="inlineStr">
         <is>
-          <t>1532.88</t>
+          <t>1201.11</t>
         </is>
       </c>
       <c r="BA11" t="inlineStr">
         <is>
-          <t>1545.18</t>
+          <t>1214.21</t>
         </is>
       </c>
       <c r="BB11" t="inlineStr">
@@ -4763,42 +4763,42 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>2679.90</t>
+          <t>2168.98</t>
         </is>
       </c>
       <c r="BD11" t="inlineStr">
         <is>
-          <t>2577.75</t>
+          <t>2000.24</t>
         </is>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
-          <t>2153.87</t>
+          <t>1688.21</t>
         </is>
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1960.44</t>
+          <t>1480.18</t>
         </is>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
-          <t>1391.68</t>
+          <t>1058.78</t>
         </is>
       </c>
       <c r="BH11" t="inlineStr">
         <is>
-          <t>1372.03</t>
+          <t>1048.95</t>
         </is>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
-          <t>1537.56</t>
+          <t>1202.13</t>
         </is>
       </c>
       <c r="BJ11" t="inlineStr">
         <is>
-          <t>1548.25</t>
+          <t>1215.05</t>
         </is>
       </c>
       <c r="BK11" t="inlineStr">
@@ -4808,42 +4808,42 @@
       </c>
       <c r="BL11" t="inlineStr">
         <is>
-          <t>2686.97</t>
+          <t>2169.65</t>
         </is>
       </c>
       <c r="BM11" t="inlineStr">
         <is>
-          <t>2584.47</t>
+          <t>2002.07</t>
         </is>
       </c>
       <c r="BN11" t="inlineStr">
         <is>
-          <t>2159.69</t>
+          <t>1689.61</t>
         </is>
       </c>
       <c r="BO11" t="inlineStr">
         <is>
-          <t>1967.34</t>
+          <t>1483.25</t>
         </is>
       </c>
       <c r="BP11" t="inlineStr">
         <is>
-          <t>1400.41</t>
+          <t>1062.44</t>
         </is>
       </c>
       <c r="BQ11" t="inlineStr">
         <is>
-          <t>1380.83</t>
+          <t>1052.62</t>
         </is>
       </c>
       <c r="BR11" t="inlineStr">
         <is>
-          <t>1545.77</t>
+          <t>1205.42</t>
         </is>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
-          <t>1555.74</t>
+          <t>1218.15</t>
         </is>
       </c>
       <c r="BT11" t="inlineStr">
@@ -4853,42 +4853,42 @@
       </c>
       <c r="BU11" t="inlineStr">
         <is>
-          <t>2769.73</t>
+          <t>2243.66</t>
         </is>
       </c>
       <c r="BV11" t="inlineStr">
         <is>
-          <t>2664.72</t>
+          <t>2070.71</t>
         </is>
       </c>
       <c r="BW11" t="inlineStr">
         <is>
-          <t>2187.29</t>
+          <t>1719.96</t>
         </is>
       </c>
       <c r="BX11" t="inlineStr">
         <is>
-          <t>1990.76</t>
+          <t>1502.92</t>
         </is>
       </c>
       <c r="BY11" t="inlineStr">
         <is>
-          <t>1476.22</t>
+          <t>1110.40</t>
         </is>
       </c>
       <c r="BZ11" t="inlineStr">
         <is>
-          <t>1456.81</t>
+          <t>1106.59</t>
         </is>
       </c>
       <c r="CA11" t="inlineStr">
         <is>
-          <t>1594.31</t>
+          <t>1239.89</t>
         </is>
       </c>
       <c r="CB11" t="inlineStr">
         <is>
-          <t>1605.14</t>
+          <t>1252.76</t>
         </is>
       </c>
       <c r="CC11" t="inlineStr">
@@ -4898,42 +4898,42 @@
       </c>
       <c r="CD11" t="inlineStr">
         <is>
-          <t>3313.61</t>
+          <t>2710.93</t>
         </is>
       </c>
       <c r="CE11" t="inlineStr">
         <is>
-          <t>3206.10</t>
+          <t>2590.78</t>
         </is>
       </c>
       <c r="CF11" t="inlineStr">
         <is>
-          <t>2769.40</t>
+          <t>2249.22</t>
         </is>
       </c>
       <c r="CG11" t="inlineStr">
         <is>
-          <t>2496.69</t>
+          <t>1928.21</t>
         </is>
       </c>
       <c r="CH11" t="inlineStr">
         <is>
-          <t>1861.67</t>
+          <t>1369.95</t>
         </is>
       </c>
       <c r="CI11" t="inlineStr">
         <is>
-          <t>1862.11</t>
+          <t>1378.88</t>
         </is>
       </c>
       <c r="CJ11" t="inlineStr">
         <is>
-          <t>2172.67</t>
+          <t>1769.92</t>
         </is>
       </c>
       <c r="CK11" t="inlineStr">
         <is>
-          <t>2184.13</t>
+          <t>1786.13</t>
         </is>
       </c>
       <c r="CL11" t="inlineStr">
@@ -4945,42 +4945,42 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2108.12</t>
+          <t>1977.70</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2002.47</t>
+          <t>1808.52</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1690.64</t>
+          <t>1380.02</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1545.77</t>
+          <t>1356.43</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1195.38</t>
+          <t>1053.47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1183.76</t>
+          <t>1063.75</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1317.44</t>
+          <t>1178.11</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1333.13</t>
+          <t>1187.25</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -4990,42 +4990,42 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>2767.16</t>
+          <t>2604.70</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2599.12</t>
+          <t>2434.76</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>2266.82</t>
+          <t>2130.78</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>1952.76</t>
+          <t>1793.86</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>1402.65</t>
+          <t>1233.21</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1384.26</t>
+          <t>1235.06</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1597.31</t>
+          <t>1435.60</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>1617.51</t>
+          <t>1462.82</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -5035,42 +5035,42 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2747.15</t>
+          <t>2573.99</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>2601.25</t>
+          <t>2438.53</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>2233.70</t>
+          <t>2047.47</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>1953.94</t>
+          <t>1799.92</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>1394.13</t>
+          <t>1235.35</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>1375.98</t>
+          <t>1219.96</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>1591.07</t>
+          <t>1427.98</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>1605.74</t>
+          <t>1443.54</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -5080,42 +5080,42 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2740.91</t>
+          <t>2559.70</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2602.19</t>
+          <t>2435.56</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>2217.49</t>
+          <t>2025.23</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>1958.72</t>
+          <t>1796.50</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>1392.86</t>
+          <t>1237.24</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>1373.26</t>
+          <t>1222.63</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>1565.61</t>
+          <t>1424.49</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>1585.13</t>
+          <t>1438.64</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -5125,42 +5125,42 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>2741.22</t>
+          <t>2548.37</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>2602.78</t>
+          <t>2431.98</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>2213.56</t>
+          <t>2014.37</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>1971.17</t>
+          <t>1794.07</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>1394.55</t>
+          <t>1243.93</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>1377.03</t>
+          <t>1222.92</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>1560.08</t>
+          <t>1421.69</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>1576.69</t>
+          <t>1433.93</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -5170,42 +5170,42 @@
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>2740.59</t>
+          <t>2538.79</t>
         </is>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
-          <t>2603.34</t>
+          <t>2428.61</t>
         </is>
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>2210.87</t>
+          <t>2008.25</t>
         </is>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>1969.90</t>
+          <t>1793.16</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>1396.24</t>
+          <t>1240.88</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
-          <t>1378.77</t>
+          <t>1229.48</t>
         </is>
       </c>
       <c r="AZ12" t="inlineStr">
         <is>
-          <t>1560.29</t>
+          <t>1432.99</t>
         </is>
       </c>
       <c r="BA12" t="inlineStr">
         <is>
-          <t>1572.71</t>
+          <t>1444.01</t>
         </is>
       </c>
       <c r="BB12" t="inlineStr">
@@ -5215,42 +5215,42 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>2740.90</t>
+          <t>2531.55</t>
         </is>
       </c>
       <c r="BD12" t="inlineStr">
         <is>
-          <t>2604.65</t>
+          <t>2427.21</t>
         </is>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
-          <t>2210.16</t>
+          <t>2004.35</t>
         </is>
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1969.86</t>
+          <t>1792.37</t>
         </is>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
-          <t>1398.56</t>
+          <t>1244.90</t>
         </is>
       </c>
       <c r="BH12" t="inlineStr">
         <is>
-          <t>1380.96</t>
+          <t>1224.34</t>
         </is>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
-          <t>1560.76</t>
+          <t>1431.14</t>
         </is>
       </c>
       <c r="BJ12" t="inlineStr">
         <is>
-          <t>1574.52</t>
+          <t>1441.62</t>
         </is>
       </c>
       <c r="BK12" t="inlineStr">
@@ -5260,42 +5260,42 @@
       </c>
       <c r="BL12" t="inlineStr">
         <is>
-          <t>2746.20</t>
+          <t>2530.10</t>
         </is>
       </c>
       <c r="BM12" t="inlineStr">
         <is>
-          <t>2610.22</t>
+          <t>2433.60</t>
         </is>
       </c>
       <c r="BN12" t="inlineStr">
         <is>
-          <t>2212.96</t>
+          <t>2008.92</t>
         </is>
       </c>
       <c r="BO12" t="inlineStr">
         <is>
-          <t>1975.14</t>
+          <t>1797.12</t>
         </is>
       </c>
       <c r="BP12" t="inlineStr">
         <is>
-          <t>1406.17</t>
+          <t>1249.90</t>
         </is>
       </c>
       <c r="BQ12" t="inlineStr">
         <is>
-          <t>1388.64</t>
+          <t>1233.93</t>
         </is>
       </c>
       <c r="BR12" t="inlineStr">
         <is>
-          <t>1567.21</t>
+          <t>1434.77</t>
         </is>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
-          <t>1578.37</t>
+          <t>1445.59</t>
         </is>
       </c>
       <c r="BT12" t="inlineStr">
@@ -5305,42 +5305,42 @@
       </c>
       <c r="BU12" t="inlineStr">
         <is>
-          <t>2823.86</t>
+          <t>2605.83</t>
         </is>
       </c>
       <c r="BV12" t="inlineStr">
         <is>
-          <t>2692.08</t>
+          <t>2515.23</t>
         </is>
       </c>
       <c r="BW12" t="inlineStr">
         <is>
-          <t>2240.75</t>
+          <t>2041.19</t>
         </is>
       </c>
       <c r="BX12" t="inlineStr">
         <is>
-          <t>2006.29</t>
+          <t>1825.07</t>
         </is>
       </c>
       <c r="BY12" t="inlineStr">
         <is>
-          <t>1475.92</t>
+          <t>1319.86</t>
         </is>
       </c>
       <c r="BZ12" t="inlineStr">
         <is>
-          <t>1457.24</t>
+          <t>1301.29</t>
         </is>
       </c>
       <c r="CA12" t="inlineStr">
         <is>
-          <t>1622.35</t>
+          <t>1471.98</t>
         </is>
       </c>
       <c r="CB12" t="inlineStr">
         <is>
-          <t>1635.89</t>
+          <t>1491.86</t>
         </is>
       </c>
       <c r="CC12" t="inlineStr">
@@ -5350,42 +5350,42 @@
       </c>
       <c r="CD12" t="inlineStr">
         <is>
-          <t>3434.38</t>
+          <t>3200.76</t>
         </is>
       </c>
       <c r="CE12" t="inlineStr">
         <is>
-          <t>3228.20</t>
+          <t>3142.00</t>
         </is>
       </c>
       <c r="CF12" t="inlineStr">
         <is>
-          <t>2852.26</t>
+          <t>2581.34</t>
         </is>
       </c>
       <c r="CG12" t="inlineStr">
         <is>
-          <t>2559.69</t>
+          <t>2303.62</t>
         </is>
       </c>
       <c r="CH12" t="inlineStr">
         <is>
-          <t>1878.43</t>
+          <t>1687.49</t>
         </is>
       </c>
       <c r="CI12" t="inlineStr">
         <is>
-          <t>1878.93</t>
+          <t>1686.08</t>
         </is>
       </c>
       <c r="CJ12" t="inlineStr">
         <is>
-          <t>2253.54</t>
+          <t>2047.87</t>
         </is>
       </c>
       <c r="CK12" t="inlineStr">
         <is>
-          <t>2265.43</t>
+          <t>2057.19</t>
         </is>
       </c>
       <c r="CL12" t="inlineStr">
@@ -5397,42 +5397,42 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2141.07</t>
+          <t>2148.65</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2030.04</t>
+          <t>1936.89</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1310.80</t>
+          <t>994.39</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1557.74</t>
+          <t>1450.32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1239.68</t>
+          <t>1098.49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1229.92</t>
+          <t>1106.34</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1334.22</t>
+          <t>1329.88</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1334.28</t>
+          <t>1267.46</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -5442,42 +5442,42 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>2759.59</t>
+          <t>2788.62</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2648.17</t>
+          <t>2614.65</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>2260.22</t>
+          <t>2352.03</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1981.80</t>
+          <t>1913.28</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>1466.26</t>
+          <t>1313.85</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1447.17</t>
+          <t>1294.96</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1602.80</t>
+          <t>1638.46</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1636.77</t>
+          <t>1661.31</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -5487,42 +5487,42 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2746.79</t>
+          <t>2777.97</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>2655.74</t>
+          <t>2625.00</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>2210.00</t>
+          <t>2299.85</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>1988.20</t>
+          <t>1930.02</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>1473.04</t>
+          <t>1329.94</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1454.93</t>
+          <t>1312.16</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>1601.35</t>
+          <t>1639.63</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>1616.80</t>
+          <t>1655.72</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -5532,42 +5532,42 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2742.37</t>
+          <t>2774.14</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2658.32</t>
+          <t>2626.42</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>2194.21</t>
+          <t>2282.16</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>1990.35</t>
+          <t>1932.99</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>1469.43</t>
+          <t>1335.64</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>1454.53</t>
+          <t>1316.10</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
-          <t>1596.99</t>
+          <t>1631.02</t>
         </is>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1608.14</t>
+          <t>1641.70</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -5577,42 +5577,42 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>2739.80</t>
+          <t>2771.19</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>2656.68</t>
+          <t>2625.07</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>2197.59</t>
+          <t>2271.09</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>1997.02</t>
+          <t>1929.02</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1420.67</t>
+          <t>1351.94</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>1416.66</t>
+          <t>1324.94</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>1592.99</t>
+          <t>1622.80</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>1605.35</t>
+          <t>1635.80</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
@@ -5622,42 +5622,42 @@
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>2738.05</t>
+          <t>2768.67</t>
         </is>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>2655.29</t>
+          <t>2623.81</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>2196.25</t>
+          <t>2261.36</t>
         </is>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>1995.97</t>
+          <t>1935.86</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>1422.40</t>
+          <t>1335.71</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
-          <t>1417.60</t>
+          <t>1322.93</t>
         </is>
       </c>
       <c r="AZ13" t="inlineStr">
         <is>
-          <t>1587.64</t>
+          <t>1603.84</t>
         </is>
       </c>
       <c r="BA13" t="inlineStr">
         <is>
-          <t>1599.72</t>
+          <t>1619.35</t>
         </is>
       </c>
       <c r="BB13" t="inlineStr">
@@ -5667,42 +5667,42 @@
       </c>
       <c r="BC13" t="inlineStr">
         <is>
-          <t>2740.00</t>
+          <t>2767.48</t>
         </is>
       </c>
       <c r="BD13" t="inlineStr">
         <is>
-          <t>2654.84</t>
+          <t>2626.26</t>
         </is>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
-          <t>2196.30</t>
+          <t>2254.43</t>
         </is>
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1993.66</t>
+          <t>1937.98</t>
         </is>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
-          <t>1424.70</t>
+          <t>1335.40</t>
         </is>
       </c>
       <c r="BH13" t="inlineStr">
         <is>
-          <t>1419.44</t>
+          <t>1317.15</t>
         </is>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
-          <t>1592.89</t>
+          <t>1592.18</t>
         </is>
       </c>
       <c r="BJ13" t="inlineStr">
         <is>
-          <t>1599.75</t>
+          <t>1604.90</t>
         </is>
       </c>
       <c r="BK13" t="inlineStr">
@@ -5712,42 +5712,42 @@
       </c>
       <c r="BL13" t="inlineStr">
         <is>
-          <t>2747.74</t>
+          <t>2771.48</t>
         </is>
       </c>
       <c r="BM13" t="inlineStr">
         <is>
-          <t>2656.09</t>
+          <t>2630.48</t>
         </is>
       </c>
       <c r="BN13" t="inlineStr">
         <is>
-          <t>2200.35</t>
+          <t>2247.01</t>
         </is>
       </c>
       <c r="BO13" t="inlineStr">
         <is>
-          <t>1993.57</t>
+          <t>1942.69</t>
         </is>
       </c>
       <c r="BP13" t="inlineStr">
         <is>
-          <t>1431.99</t>
+          <t>1341.05</t>
         </is>
       </c>
       <c r="BQ13" t="inlineStr">
         <is>
-          <t>1414.63</t>
+          <t>1322.69</t>
         </is>
       </c>
       <c r="BR13" t="inlineStr">
         <is>
-          <t>1595.98</t>
+          <t>1593.50</t>
         </is>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>1605.46</t>
+          <t>1605.94</t>
         </is>
       </c>
       <c r="BT13" t="inlineStr">
@@ -5757,42 +5757,42 @@
       </c>
       <c r="BU13" t="inlineStr">
         <is>
-          <t>2834.71</t>
+          <t>2849.85</t>
         </is>
       </c>
       <c r="BV13" t="inlineStr">
         <is>
-          <t>2737.10</t>
+          <t>2715.65</t>
         </is>
       </c>
       <c r="BW13" t="inlineStr">
         <is>
-          <t>2224.15</t>
+          <t>2269.67</t>
         </is>
       </c>
       <c r="BX13" t="inlineStr">
         <is>
-          <t>2026.01</t>
+          <t>1971.79</t>
         </is>
       </c>
       <c r="BY13" t="inlineStr">
         <is>
-          <t>1555.52</t>
+          <t>1409.42</t>
         </is>
       </c>
       <c r="BZ13" t="inlineStr">
         <is>
-          <t>1539.80</t>
+          <t>1390.91</t>
         </is>
       </c>
       <c r="CA13" t="inlineStr">
         <is>
-          <t>1663.11</t>
+          <t>1613.13</t>
         </is>
       </c>
       <c r="CB13" t="inlineStr">
         <is>
-          <t>1673.09</t>
+          <t>1649.06</t>
         </is>
       </c>
       <c r="CC13" t="inlineStr">
@@ -5802,42 +5802,42 @@
       </c>
       <c r="CD13" t="inlineStr">
         <is>
-          <t>3394.48</t>
+          <t>3436.60</t>
         </is>
       </c>
       <c r="CE13" t="inlineStr">
         <is>
-          <t>3343.96</t>
+          <t>3353.42</t>
         </is>
       </c>
       <c r="CF13" t="inlineStr">
         <is>
-          <t>2842.08</t>
+          <t>2858.56</t>
         </is>
       </c>
       <c r="CG13" t="inlineStr">
         <is>
-          <t>2522.26</t>
+          <t>2476.38</t>
         </is>
       </c>
       <c r="CH13" t="inlineStr">
         <is>
-          <t>1945.00</t>
+          <t>1816.27</t>
         </is>
       </c>
       <c r="CI13" t="inlineStr">
         <is>
-          <t>1944.09</t>
+          <t>1814.93</t>
         </is>
       </c>
       <c r="CJ13" t="inlineStr">
         <is>
-          <t>2286.61</t>
+          <t>2262.93</t>
         </is>
       </c>
       <c r="CK13" t="inlineStr">
         <is>
-          <t>2302.10</t>
+          <t>2275.48</t>
         </is>
       </c>
       <c r="CL13" t="inlineStr">
@@ -5849,42 +5849,42 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2106.02</t>
+          <t>2240.60</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2016.24</t>
+          <t>2004.45</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>668.88</t>
+          <t>679.84</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1545.59</t>
+          <t>1575.66</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1187.29</t>
+          <t>1215.41</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1177.87</t>
+          <t>1205.74</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1297.22</t>
+          <t>1328.11</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1338.82</t>
+          <t>1338.36</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -5894,42 +5894,42 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2820.88</t>
+          <t>2907.07</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2642.79</t>
+          <t>2618.13</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>2251.68</t>
+          <t>2349.86</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>1966.71</t>
+          <t>2017.53</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>1434.14</t>
+          <t>1439.73</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1414.15</t>
+          <t>1421.89</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>1641.09</t>
+          <t>1648.93</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>1650.27</t>
+          <t>1665.37</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
@@ -5939,42 +5939,42 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2813.85</t>
+          <t>2892.67</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>2675.54</t>
+          <t>2621.85</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>2210.84</t>
+          <t>2314.39</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1963.96</t>
+          <t>2024.33</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1441.52</t>
+          <t>1444.59</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>1422.31</t>
+          <t>1427.11</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>1647.22</t>
+          <t>1652.76</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>1654.99</t>
+          <t>1664.77</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -5984,42 +5984,42 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2808.37</t>
+          <t>2882.13</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2686.69</t>
+          <t>2619.84</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>2194.00</t>
+          <t>2301.98</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>1956.59</t>
+          <t>2021.24</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>1441.77</t>
+          <t>1445.76</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
-          <t>1421.23</t>
+          <t>1428.25</t>
         </is>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
-          <t>1644.53</t>
+          <t>1683.24</t>
         </is>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>1651.92</t>
+          <t>1663.98</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -6029,42 +6029,42 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>2798.94</t>
+          <t>2865.56</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t>2691.72</t>
+          <t>2616.27</t>
         </is>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>2190.39</t>
+          <t>2280.64</t>
         </is>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>1960.26</t>
+          <t>2016.19</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>1426.10</t>
+          <t>1445.26</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>1407.32</t>
+          <t>1427.83</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>1599.23</t>
+          <t>1678.15</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>1608.81</t>
+          <t>1692.34</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
@@ -6074,42 +6074,42 @@
       </c>
       <c r="AT14" t="inlineStr">
         <is>
-          <t>2762.03</t>
+          <t>2859.59</t>
         </is>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>2695.50</t>
+          <t>2598.82</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
         <is>
-          <t>2185.54</t>
+          <t>2266.75</t>
         </is>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>1958.11</t>
+          <t>2014.59</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>1427.08</t>
+          <t>1444.08</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
-          <t>1408.32</t>
+          <t>1426.63</t>
         </is>
       </c>
       <c r="AZ14" t="inlineStr">
         <is>
-          <t>1601.96</t>
+          <t>1669.93</t>
         </is>
       </c>
       <c r="BA14" t="inlineStr">
         <is>
-          <t>1611.53</t>
+          <t>1679.67</t>
         </is>
       </c>
       <c r="BB14" t="inlineStr">
@@ -6119,42 +6119,42 @@
       </c>
       <c r="BC14" t="inlineStr">
         <is>
-          <t>2761.00</t>
+          <t>2854.61</t>
         </is>
       </c>
       <c r="BD14" t="inlineStr">
         <is>
-          <t>2698.64</t>
+          <t>2598.30</t>
         </is>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
-          <t>2183.57</t>
+          <t>2260.95</t>
         </is>
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1957.84</t>
+          <t>2011.90</t>
         </is>
       </c>
       <c r="BG14" t="inlineStr">
         <is>
-          <t>1428.71</t>
+          <t>1444.61</t>
         </is>
       </c>
       <c r="BH14" t="inlineStr">
         <is>
-          <t>1409.99</t>
+          <t>1426.80</t>
         </is>
       </c>
       <c r="BI14" t="inlineStr">
         <is>
-          <t>1606.21</t>
+          <t>1667.98</t>
         </is>
       </c>
       <c r="BJ14" t="inlineStr">
         <is>
-          <t>1613.90</t>
+          <t>1677.51</t>
         </is>
       </c>
       <c r="BK14" t="inlineStr">
@@ -6164,42 +6164,42 @@
       </c>
       <c r="BL14" t="inlineStr">
         <is>
-          <t>2765.00</t>
+          <t>2856.57</t>
         </is>
       </c>
       <c r="BM14" t="inlineStr">
         <is>
-          <t>2702.78</t>
+          <t>2602.92</t>
         </is>
       </c>
       <c r="BN14" t="inlineStr">
         <is>
-          <t>2185.06</t>
+          <t>2240.91</t>
         </is>
       </c>
       <c r="BO14" t="inlineStr">
         <is>
-          <t>1961.85</t>
+          <t>2015.16</t>
         </is>
       </c>
       <c r="BP14" t="inlineStr">
         <is>
-          <t>1435.65</t>
+          <t>1450.88</t>
         </is>
       </c>
       <c r="BQ14" t="inlineStr">
         <is>
-          <t>1416.86</t>
+          <t>1433.04</t>
         </is>
       </c>
       <c r="BR14" t="inlineStr">
         <is>
-          <t>1611.04</t>
+          <t>1659.97</t>
         </is>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
-          <t>1618.73</t>
+          <t>1669.52</t>
         </is>
       </c>
       <c r="BT14" t="inlineStr">
@@ -6209,42 +6209,42 @@
       </c>
       <c r="BU14" t="inlineStr">
         <is>
-          <t>2846.46</t>
+          <t>2938.40</t>
         </is>
       </c>
       <c r="BV14" t="inlineStr">
         <is>
-          <t>2783.10</t>
+          <t>2678.53</t>
         </is>
       </c>
       <c r="BW14" t="inlineStr">
         <is>
-          <t>2218.28</t>
+          <t>2266.74</t>
         </is>
       </c>
       <c r="BX14" t="inlineStr">
         <is>
-          <t>1988.54</t>
+          <t>2043.27</t>
         </is>
       </c>
       <c r="BY14" t="inlineStr">
         <is>
-          <t>1503.29</t>
+          <t>1519.21</t>
         </is>
       </c>
       <c r="BZ14" t="inlineStr">
         <is>
-          <t>1484.55</t>
+          <t>1501.36</t>
         </is>
       </c>
       <c r="CA14" t="inlineStr">
         <is>
-          <t>1650.08</t>
+          <t>1697.31</t>
         </is>
       </c>
       <c r="CB14" t="inlineStr">
         <is>
-          <t>1660.57</t>
+          <t>1706.61</t>
         </is>
       </c>
       <c r="CC14" t="inlineStr">
@@ -6254,42 +6254,42 @@
       </c>
       <c r="CD14" t="inlineStr">
         <is>
-          <t>3634.49</t>
+          <t>3623.74</t>
         </is>
       </c>
       <c r="CE14" t="inlineStr">
         <is>
-          <t>3310.25</t>
+          <t>3147.43</t>
         </is>
       </c>
       <c r="CF14" t="inlineStr">
         <is>
-          <t>2937.89</t>
+          <t>2909.14</t>
         </is>
       </c>
       <c r="CG14" t="inlineStr">
         <is>
-          <t>2502.79</t>
+          <t>2454.93</t>
         </is>
       </c>
       <c r="CH14" t="inlineStr">
         <is>
-          <t>1934.44</t>
+          <t>1875.81</t>
         </is>
       </c>
       <c r="CI14" t="inlineStr">
         <is>
-          <t>1927.80</t>
+          <t>1880.13</t>
         </is>
       </c>
       <c r="CJ14" t="inlineStr">
         <is>
-          <t>2373.85</t>
+          <t>2360.80</t>
         </is>
       </c>
       <c r="CK14" t="inlineStr">
         <is>
-          <t>2390.13</t>
+          <t>2368.40</t>
         </is>
       </c>
       <c r="CL14" t="inlineStr">
@@ -7205,42 +7205,42 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1909.60</t>
+          <t>1570.37</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1845.53</t>
+          <t>1474.03</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>663.15</t>
+          <t>467.54</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1459.13</t>
+          <t>1144.24</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1114.22</t>
+          <t>820.34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1110.09</t>
+          <t>819.21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1143.35</t>
+          <t>904.94</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1149.66</t>
+          <t>919.76</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -7250,42 +7250,42 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>2506.76</t>
+          <t>2108.43</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2403.54</t>
+          <t>2014.48</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2043.50</t>
+          <t>1783.01</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1873.19</t>
+          <t>1504.16</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1316.53</t>
+          <t>1015.03</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1304.16</t>
+          <t>1010.25</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1408.42</t>
+          <t>1159.18</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1424.67</t>
+          <t>1179.03</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -7295,42 +7295,42 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2489.46</t>
+          <t>2087.38</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>2393.79</t>
+          <t>1999.75</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2008.57</t>
+          <t>1675.52</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1867.94</t>
+          <t>1484.69</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>1318.57</t>
+          <t>1013.16</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1306.28</t>
+          <t>1008.57</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>1408.96</t>
+          <t>1146.49</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>1420.22</t>
+          <t>1166.27</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -7340,42 +7340,42 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2483.51</t>
+          <t>2076.81</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2394.70</t>
+          <t>1990.50</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>2000.64</t>
+          <t>1638.89</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>1863.06</t>
+          <t>1480.51</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>1320.67</t>
+          <t>1012.09</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>1311.47</t>
+          <t>1007.59</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>1410.97</t>
+          <t>1142.90</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>1421.24</t>
+          <t>1160.36</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -7385,42 +7385,42 @@
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>2483.54</t>
+          <t>2069.05</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>2399.28</t>
+          <t>1983.28</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>2004.14</t>
+          <t>1630.69</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>1869.50</t>
+          <t>1478.20</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>1325.53</t>
+          <t>1011.45</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>1316.81</t>
+          <t>1007.05</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>1413.19</t>
+          <t>1141.11</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>1423.23</t>
+          <t>1158.45</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
@@ -7430,42 +7430,42 @@
       </c>
       <c r="AT17" t="inlineStr">
         <is>
-          <t>2487.88</t>
+          <t>2062.74</t>
         </is>
       </c>
       <c r="AU17" t="inlineStr">
         <is>
-          <t>2403.80</t>
+          <t>1977.30</t>
         </is>
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>2002.58</t>
+          <t>1629.09</t>
         </is>
       </c>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>1868.36</t>
+          <t>1480.72</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>1330.84</t>
+          <t>1010.90</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr">
         <is>
-          <t>1319.33</t>
+          <t>1006.52</t>
         </is>
       </c>
       <c r="AZ17" t="inlineStr">
         <is>
-          <t>1415.39</t>
+          <t>1139.98</t>
         </is>
       </c>
       <c r="BA17" t="inlineStr">
         <is>
-          <t>1425.42</t>
+          <t>1157.48</t>
         </is>
       </c>
       <c r="BB17" t="inlineStr">
@@ -7475,42 +7475,42 @@
       </c>
       <c r="BC17" t="inlineStr">
         <is>
-          <t>2492.74</t>
+          <t>2057.90</t>
         </is>
       </c>
       <c r="BD17" t="inlineStr">
         <is>
-          <t>2408.74</t>
+          <t>1972.72</t>
         </is>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
-          <t>2005.51</t>
+          <t>1626.17</t>
         </is>
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1870.74</t>
+          <t>1480.18</t>
         </is>
       </c>
       <c r="BG17" t="inlineStr">
         <is>
-          <t>1334.04</t>
+          <t>1010.54</t>
         </is>
       </c>
       <c r="BH17" t="inlineStr">
         <is>
-          <t>1322.39</t>
+          <t>1005.82</t>
         </is>
       </c>
       <c r="BI17" t="inlineStr">
         <is>
-          <t>1420.02</t>
+          <t>1139.55</t>
         </is>
       </c>
       <c r="BJ17" t="inlineStr">
         <is>
-          <t>1428.30</t>
+          <t>1156.94</t>
         </is>
       </c>
       <c r="BK17" t="inlineStr">
@@ -7520,42 +7520,42 @@
       </c>
       <c r="BL17" t="inlineStr">
         <is>
-          <t>2502.51</t>
+          <t>2058.02</t>
         </is>
       </c>
       <c r="BM17" t="inlineStr">
         <is>
-          <t>2418.48</t>
+          <t>1973.14</t>
         </is>
       </c>
       <c r="BN17" t="inlineStr">
         <is>
-          <t>2010.12</t>
+          <t>1625.55</t>
         </is>
       </c>
       <c r="BO17" t="inlineStr">
         <is>
-          <t>1877.69</t>
+          <t>1479.54</t>
         </is>
       </c>
       <c r="BP17" t="inlineStr">
         <is>
-          <t>1341.66</t>
+          <t>1013.67</t>
         </is>
       </c>
       <c r="BQ17" t="inlineStr">
         <is>
-          <t>1330.09</t>
+          <t>1007.49</t>
         </is>
       </c>
       <c r="BR17" t="inlineStr">
         <is>
-          <t>1427.23</t>
+          <t>1139.76</t>
         </is>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
-          <t>1435.46</t>
+          <t>1152.04</t>
         </is>
       </c>
       <c r="BT17" t="inlineStr">
@@ -7565,42 +7565,42 @@
       </c>
       <c r="BU17" t="inlineStr">
         <is>
-          <t>2591.61</t>
+          <t>2130.15</t>
         </is>
       </c>
       <c r="BV17" t="inlineStr">
         <is>
-          <t>2504.87</t>
+          <t>2044.19</t>
         </is>
       </c>
       <c r="BW17" t="inlineStr">
         <is>
-          <t>2041.78</t>
+          <t>1648.66</t>
         </is>
       </c>
       <c r="BX17" t="inlineStr">
         <is>
-          <t>1906.59</t>
+          <t>1495.21</t>
         </is>
       </c>
       <c r="BY17" t="inlineStr">
         <is>
-          <t>1406.54</t>
+          <t>1067.77</t>
         </is>
       </c>
       <c r="BZ17" t="inlineStr">
         <is>
-          <t>1394.40</t>
+          <t>1061.92</t>
         </is>
       </c>
       <c r="CA17" t="inlineStr">
         <is>
-          <t>1472.89</t>
+          <t>1163.03</t>
         </is>
       </c>
       <c r="CB17" t="inlineStr">
         <is>
-          <t>1483.17</t>
+          <t>1181.49</t>
         </is>
       </c>
       <c r="CC17" t="inlineStr">
@@ -7610,42 +7610,42 @@
       </c>
       <c r="CD17" t="inlineStr">
         <is>
-          <t>2967.76</t>
+          <t>2589.64</t>
         </is>
       </c>
       <c r="CE17" t="inlineStr">
         <is>
-          <t>3064.80</t>
+          <t>2558.73</t>
         </is>
       </c>
       <c r="CF17" t="inlineStr">
         <is>
-          <t>2591.39</t>
+          <t>2171.21</t>
         </is>
       </c>
       <c r="CG17" t="inlineStr">
         <is>
-          <t>2349.68</t>
+          <t>1928.05</t>
         </is>
       </c>
       <c r="CH17" t="inlineStr">
         <is>
-          <t>1723.99</t>
+          <t>1369.95</t>
         </is>
       </c>
       <c r="CI17" t="inlineStr">
         <is>
-          <t>1731.38</t>
+          <t>1378.88</t>
         </is>
       </c>
       <c r="CJ17" t="inlineStr">
         <is>
-          <t>2027.75</t>
+          <t>1689.68</t>
         </is>
       </c>
       <c r="CK17" t="inlineStr">
         <is>
-          <t>2037.53</t>
+          <t>1704.48</t>
         </is>
       </c>
       <c r="CL17" t="inlineStr">
@@ -7657,42 +7657,42 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2193.60</t>
+          <t>2271.37</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2040.80</t>
+          <t>2080.25</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>1690.64</t>
+          <t>1380.02</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1557.74</t>
+          <t>1618.80</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1239.68</t>
+          <t>1230.69</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1229.92</t>
+          <t>1219.12</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1334.22</t>
+          <t>1352.39</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1338.82</t>
+          <t>1358.30</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -7702,42 +7702,42 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2837.53</t>
+          <t>2978.93</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>2712.92</t>
+          <t>2728.74</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2266.82</t>
+          <t>2377.61</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2058.36</t>
+          <t>2083.35</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1509.79</t>
+          <t>1488.01</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1489.17</t>
+          <t>1469.07</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1641.09</t>
+          <t>1680.88</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>1650.27</t>
+          <t>1697.89</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -7747,42 +7747,42 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2834.86</t>
+          <t>2974.62</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>2679.95</t>
+          <t>2738.67</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>2247.22</t>
+          <t>2349.53</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>2031.60</t>
+          <t>2082.43</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>1501.88</t>
+          <t>1489.03</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1476.42</t>
+          <t>1470.54</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>1647.22</t>
+          <t>1671.89</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>1654.99</t>
+          <t>1686.11</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -7792,42 +7792,42 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2829.33</t>
+          <t>2964.28</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2686.69</t>
+          <t>2750.73</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>2233.18</t>
+          <t>2336.42</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>2022.35</t>
+          <t>2067.73</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>1470.38</t>
+          <t>1445.76</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>1457.36</t>
+          <t>1428.25</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
         <is>
-          <t>1644.53</t>
+          <t>1683.24</t>
         </is>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>1651.92</t>
+          <t>1678.50</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -7837,42 +7837,42 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>2823.30</t>
+          <t>2946.94</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>2691.72</t>
+          <t>2756.30</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>2233.19</t>
+          <t>2323.85</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>2021.32</t>
+          <t>2066.30</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>1468.99</t>
+          <t>1491.77</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>1450.08</t>
+          <t>1433.40</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>1611.29</t>
+          <t>1678.15</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>1639.66</t>
+          <t>1692.34</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
@@ -7882,42 +7882,42 @@
       </c>
       <c r="AT18" t="inlineStr">
         <is>
-          <t>2818.98</t>
+          <t>2926.18</t>
         </is>
       </c>
       <c r="AU18" t="inlineStr">
         <is>
-          <t>2695.50</t>
+          <t>2748.68</t>
         </is>
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>2229.18</t>
+          <t>2321.00</t>
         </is>
       </c>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>2014.49</t>
+          <t>2081.70</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>1466.95</t>
+          <t>1482.41</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr">
         <is>
-          <t>1446.56</t>
+          <t>1472.70</t>
         </is>
       </c>
       <c r="AZ18" t="inlineStr">
         <is>
-          <t>1606.95</t>
+          <t>1692.61</t>
         </is>
       </c>
       <c r="BA18" t="inlineStr">
         <is>
-          <t>1616.77</t>
+          <t>1702.53</t>
         </is>
       </c>
       <c r="BB18" t="inlineStr">
@@ -7927,42 +7927,42 @@
       </c>
       <c r="BC18" t="inlineStr">
         <is>
-          <t>2816.81</t>
+          <t>2918.97</t>
         </is>
       </c>
       <c r="BD18" t="inlineStr">
         <is>
-          <t>2698.64</t>
+          <t>2743.64</t>
         </is>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
-          <t>2227.52</t>
+          <t>2318.70</t>
         </is>
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2009.65</t>
+          <t>2074.40</t>
         </is>
       </c>
       <c r="BG18" t="inlineStr">
         <is>
-          <t>1465.62</t>
+          <t>1477.15</t>
         </is>
       </c>
       <c r="BH18" t="inlineStr">
         <is>
-          <t>1445.24</t>
+          <t>1457.87</t>
         </is>
       </c>
       <c r="BI18" t="inlineStr">
         <is>
-          <t>1611.19</t>
+          <t>1684.06</t>
         </is>
       </c>
       <c r="BJ18" t="inlineStr">
         <is>
-          <t>1619.65</t>
+          <t>1694.07</t>
         </is>
       </c>
       <c r="BK18" t="inlineStr">
@@ -7972,42 +7972,42 @@
       </c>
       <c r="BL18" t="inlineStr">
         <is>
-          <t>2818.71</t>
+          <t>2908.56</t>
         </is>
       </c>
       <c r="BM18" t="inlineStr">
         <is>
-          <t>2702.78</t>
+          <t>2741.13</t>
         </is>
       </c>
       <c r="BN18" t="inlineStr">
         <is>
-          <t>2230.60</t>
+          <t>2319.04</t>
         </is>
       </c>
       <c r="BO18" t="inlineStr">
         <is>
-          <t>2009.88</t>
+          <t>2075.64</t>
         </is>
       </c>
       <c r="BP18" t="inlineStr">
         <is>
-          <t>1471.81</t>
+          <t>1468.26</t>
         </is>
       </c>
       <c r="BQ18" t="inlineStr">
         <is>
-          <t>1451.60</t>
+          <t>1449.35</t>
         </is>
       </c>
       <c r="BR18" t="inlineStr">
         <is>
-          <t>1626.84</t>
+          <t>1689.03</t>
         </is>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
-          <t>1635.25</t>
+          <t>1698.88</t>
         </is>
       </c>
       <c r="BT18" t="inlineStr">
@@ -8017,42 +8017,42 @@
       </c>
       <c r="BU18" t="inlineStr">
         <is>
-          <t>2900.85</t>
+          <t>2989.89</t>
         </is>
       </c>
       <c r="BV18" t="inlineStr">
         <is>
-          <t>2783.10</t>
+          <t>2821.89</t>
         </is>
       </c>
       <c r="BW18" t="inlineStr">
         <is>
-          <t>2262.15</t>
+          <t>2347.02</t>
         </is>
       </c>
       <c r="BX18" t="inlineStr">
         <is>
-          <t>2034.45</t>
+          <t>2100.55</t>
         </is>
       </c>
       <c r="BY18" t="inlineStr">
         <is>
-          <t>1555.52</t>
+          <t>1541.68</t>
         </is>
       </c>
       <c r="BZ18" t="inlineStr">
         <is>
-          <t>1539.80</t>
+          <t>1513.44</t>
         </is>
       </c>
       <c r="CA18" t="inlineStr">
         <is>
-          <t>1674.91</t>
+          <t>1739.48</t>
         </is>
       </c>
       <c r="CB18" t="inlineStr">
         <is>
-          <t>1685.78</t>
+          <t>1750.34</t>
         </is>
       </c>
       <c r="CC18" t="inlineStr">
@@ -8062,42 +8062,42 @@
       </c>
       <c r="CD18" t="inlineStr">
         <is>
-          <t>3650.69</t>
+          <t>3753.35</t>
         </is>
       </c>
       <c r="CE18" t="inlineStr">
         <is>
-          <t>3380.09</t>
+          <t>3437.36</t>
         </is>
       </c>
       <c r="CF18" t="inlineStr">
         <is>
-          <t>2937.89</t>
+          <t>2964.36</t>
         </is>
       </c>
       <c r="CG18" t="inlineStr">
         <is>
-          <t>2559.69</t>
+          <t>2574.46</t>
         </is>
       </c>
       <c r="CH18" t="inlineStr">
         <is>
-          <t>1970.70</t>
+          <t>1942.58</t>
         </is>
       </c>
       <c r="CI18" t="inlineStr">
         <is>
-          <t>1968.92</t>
+          <t>1939.22</t>
         </is>
       </c>
       <c r="CJ18" t="inlineStr">
         <is>
-          <t>2373.85</t>
+          <t>2444.87</t>
         </is>
       </c>
       <c r="CK18" t="inlineStr">
         <is>
-          <t>2390.13</t>
+          <t>2454.71</t>
         </is>
       </c>
       <c r="CL18" t="inlineStr">
